--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF52C45-CD57-419B-B555-1518C317D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42723EB-F281-436D-BA76-06217A2F57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CY</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>Yr_1</t>
   </si>
+  <si>
+    <t>Desc</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +57,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,7 +106,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -421,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -450,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -458,6 +463,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1">
         <f>Input!C2</f>
         <v>2019</v>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42723EB-F281-436D-BA76-06217A2F57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589BC17D-809E-4C64-A3D6-96B14B53EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CY</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>COS</t>
   </si>
 </sst>
 </file>
@@ -451,11 +454,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -507,7 +508,26 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24339</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22169</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23394</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23825</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589BC17D-809E-4C64-A3D6-96B14B53EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309CC06-163D-44C3-B2C6-7FB817699ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>CY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Revenue</t>
   </si>
@@ -52,6 +49,24 @@
   </si>
   <si>
     <t>COS</t>
+  </si>
+  <si>
+    <t>Opex_NonDepr</t>
+  </si>
+  <si>
+    <t>Percent_Depr_SGA</t>
+  </si>
+  <si>
+    <t>Depreciation in SG&amp;A</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>Depr</t>
+  </si>
+  <si>
+    <t>Capex</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +95,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,18 +123,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,24 +456,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -454,77 +483,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <f>Input!C2</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <f>B1+1</f>
-        <v>2020</v>
+        <f t="shared" ref="C1:I1" si="0">B1+1</f>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:F1" si="0">C1+1</f>
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2018</v>
       </c>
       <c r="E1">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F1">
         <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
+        <v>39302</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40534</v>
+      </c>
+      <c r="D2" s="2">
+        <v>41802</v>
+      </c>
+      <c r="E2" s="2">
         <v>36709</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="2">
         <v>32637</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="2">
         <v>34392</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H2" s="2">
         <v>35466</v>
       </c>
-      <c r="F2" s="2">
+      <c r="I2" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>27677</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28144</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29046</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24339</v>
+      </c>
+      <c r="F3" s="2">
+        <v>22169</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23394</v>
+      </c>
+      <c r="H3" s="2">
+        <v>23825</v>
+      </c>
+      <c r="I3" s="3">
+        <v>25306.218583769834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <f>726+304</f>
+        <v>1030</v>
+      </c>
+      <c r="C4" s="2">
+        <f>717+398</f>
+        <v>1115</v>
+      </c>
+      <c r="D4" s="2">
+        <f>721+395</f>
+        <v>1116</v>
+      </c>
+      <c r="E4" s="2">
+        <f>673+415</f>
+        <v>1088</v>
+      </c>
+      <c r="F4" s="2">
+        <f>644+358</f>
+        <v>1002</v>
+      </c>
+      <c r="G4" s="2">
+        <f>674+549</f>
+        <v>1223</v>
+      </c>
+      <c r="H4" s="2">
+        <f>657+547</f>
+        <v>1204</v>
+      </c>
+      <c r="I4" s="8">
+        <f>I2*0.032</f>
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5574</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6087</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6051</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5519</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4772</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4798</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5214</v>
+      </c>
+      <c r="I5" s="6">
+        <f>I2*0.145</f>
+        <v>5365</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="5">
+        <f>Input!$C$3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>24339</v>
-      </c>
-      <c r="C3" s="2">
-        <v>22169</v>
-      </c>
-      <c r="D3" s="2">
-        <v>23394</v>
-      </c>
-      <c r="E3" s="2">
-        <v>23825</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="B7" s="7">
+        <f>B5-B4*B6</f>
+        <v>4801.5</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7:I7" si="1">C5-C4*C6</f>
+        <v>5250.75</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>5214</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>4703</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>4020.5</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>3880.75</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>4311</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1095</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1031</v>
+      </c>
+      <c r="D8" s="2">
+        <v>828</v>
+      </c>
+      <c r="E8" s="2">
+        <v>839</v>
+      </c>
+      <c r="F8" s="2">
+        <v>906</v>
+      </c>
+      <c r="G8" s="2">
+        <v>895</v>
+      </c>
+      <c r="H8" s="2">
+        <v>766</v>
+      </c>
+      <c r="I8" s="7">
+        <f>I2*0.025</f>
+        <v>925</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309CC06-163D-44C3-B2C6-7FB817699ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15E458-B2BE-4382-87B5-E07B604CE3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Revenue</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Capex</t>
+  </si>
+  <si>
+    <t>IntExp</t>
+  </si>
+  <si>
+    <t>LTD_Current</t>
+  </si>
+  <si>
+    <t>LTD_NonCurrent</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -483,9 +492,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -733,30 +742,111 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>338</v>
+      </c>
+      <c r="C8" s="2">
+        <v>316</v>
+      </c>
+      <c r="D8" s="2">
+        <v>367</v>
+      </c>
+      <c r="E8" s="2">
+        <v>357</v>
+      </c>
+      <c r="F8" s="2">
+        <v>359</v>
+      </c>
+      <c r="G8" s="2">
+        <v>343</v>
+      </c>
+      <c r="H8" s="2">
+        <v>414</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>227</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1351</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2872</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1376</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2445</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1803</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12182</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12573</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9756</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11110</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16342</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15123</v>
+      </c>
+      <c r="H10" s="2">
+        <v>14254</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B11" s="2">
         <v>1095</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C11" s="2">
         <v>1031</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D11" s="2">
         <v>828</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E11" s="2">
         <v>839</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="2">
         <v>906</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <v>895</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H11" s="2">
         <v>766</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I11" s="7">
         <f>I2*0.025</f>
         <v>925</v>
       </c>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15E458-B2BE-4382-87B5-E07B604CE3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECDE5E-4F83-4DE1-8F35-C333083376F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECDE5E-4F83-4DE1-8F35-C333083376F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3119F8-801D-4713-AECD-40CD8F4385CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Revenue</t>
   </si>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>LTD_NonCurrent</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Total_BS_CA</t>
+  </si>
+  <si>
+    <t>Total_BS_A</t>
+  </si>
+  <si>
+    <t>Total_BS_CL</t>
+  </si>
+  <si>
+    <t>Total_BS_L</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>PPE_Net</t>
+  </si>
+  <si>
+    <t>PPE_Gross</t>
+  </si>
+  <si>
+    <t>Accum Depr</t>
   </si>
 </sst>
 </file>
@@ -465,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -492,13 +528,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -823,30 +859,207 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>17756</v>
+      </c>
+      <c r="H11" s="2">
+        <v>17497</v>
+      </c>
+      <c r="I11" s="7">
+        <f>H11</f>
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3613</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3222</v>
+      </c>
+      <c r="I12" s="7">
+        <f>H12</f>
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6830</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7440</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5138</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5538</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3542</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2717</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14507</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15187</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13410</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13713</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14337</v>
+      </c>
+      <c r="G16" s="2">
+        <v>14450</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14762</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-8714</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-9261</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-8114</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-8388</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-8767</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-8888</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-9291</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B16+B17</f>
+        <v>5793</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:I18" si="2">C16+C17</f>
+        <v>5926</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>5296</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="2"/>
+        <v>5325</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>5570</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>5562</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>5471</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B23" s="2">
         <v>1095</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C23" s="2">
         <v>1031</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D23" s="2">
         <v>828</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E23" s="2">
         <v>839</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F23" s="2">
         <v>906</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G23" s="2">
         <v>895</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H23" s="2">
         <v>766</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I23" s="7">
         <f>I2*0.025</f>
         <v>925</v>
       </c>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3119F8-801D-4713-AECD-40CD8F4385CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351EBCD-7F4F-4FB5-A3FD-02FE810ACC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -891,6 +891,21 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
+      <c r="B13" s="2">
+        <v>8177</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8866</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7508</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7493</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6827</v>
+      </c>
       <c r="G13" s="2">
         <v>6830</v>
       </c>
@@ -903,6 +918,21 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="2">
+        <v>4366</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4613</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4326</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4421</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4489</v>
+      </c>
       <c r="G14" s="2">
         <v>5138</v>
       </c>
@@ -914,6 +944,21 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5690</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6584</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5607</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5730</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5750</v>
       </c>
       <c r="G15" s="2">
         <v>3542</v>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351EBCD-7F4F-4FB5-A3FD-02FE810ACC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F939721F-F26F-4CE0-BE9E-9CAA3CA4D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Revenue</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Accum Depr</t>
+  </si>
+  <si>
+    <t>OtherBS_CA</t>
+  </si>
+  <si>
+    <t>OtherBS_NCA</t>
+  </si>
+  <si>
+    <t>OtherBS_CL</t>
+  </si>
+  <si>
+    <t>OtherBS_NCL</t>
   </si>
 </sst>
 </file>
@@ -528,7 +540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1061,50 +1073,102 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B27" s="2">
         <v>1095</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C27" s="2">
         <v>1031</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D27" s="2">
         <v>828</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E27" s="2">
         <v>839</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F27" s="2">
         <v>906</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G27" s="2">
         <v>895</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H27" s="2">
         <v>766</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I27" s="7">
         <f>I2*0.025</f>
         <v>925</v>
       </c>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F939721F-F26F-4CE0-BE9E-9CAA3CA4D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E65C6-6CA4-435C-90E3-C699573F83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Revenue</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>OtherBS_NCL</t>
+  </si>
+  <si>
+    <t>TaxExp</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -817,276 +820,290 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>227</v>
+        <v>1601</v>
       </c>
       <c r="C9" s="2">
-        <v>1351</v>
+        <v>5362</v>
       </c>
       <c r="D9" s="2">
-        <v>2872</v>
+        <v>659</v>
       </c>
       <c r="E9" s="2">
-        <v>1376</v>
+        <v>1329</v>
       </c>
       <c r="F9" s="2">
-        <v>2445</v>
+        <v>1147</v>
       </c>
       <c r="G9" s="2">
-        <v>1803</v>
+        <v>1625</v>
       </c>
       <c r="H9" s="2">
-        <v>1730</v>
+        <v>1412</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>12182</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2">
-        <v>12573</v>
+        <v>1351</v>
       </c>
       <c r="D10" s="2">
-        <v>9756</v>
+        <v>2872</v>
       </c>
       <c r="E10" s="2">
-        <v>11110</v>
+        <v>1376</v>
       </c>
       <c r="F10" s="2">
-        <v>16342</v>
+        <v>2445</v>
       </c>
       <c r="G10" s="2">
-        <v>15123</v>
+        <v>1803</v>
       </c>
       <c r="H10" s="2">
-        <v>14254</v>
+        <v>1730</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12182</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12573</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9756</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11110</v>
+      </c>
+      <c r="F11" s="2">
+        <v>16342</v>
       </c>
       <c r="G11" s="2">
-        <v>17756</v>
+        <v>15123</v>
       </c>
       <c r="H11" s="2">
-        <v>17497</v>
-      </c>
-      <c r="I11" s="7">
-        <f>H11</f>
-        <v>17497</v>
-      </c>
+        <v>14254</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>3613</v>
+        <v>17756</v>
       </c>
       <c r="H12" s="2">
-        <v>3222</v>
+        <v>17497</v>
       </c>
       <c r="I12" s="7">
         <f>H12</f>
-        <v>3222</v>
+        <v>17497</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8177</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8866</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7508</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7493</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6827</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2">
-        <v>6830</v>
+        <v>3613</v>
       </c>
       <c r="H13" s="2">
-        <v>7440</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>3222</v>
+      </c>
+      <c r="I13" s="7">
+        <f>H13</f>
+        <v>3222</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>4366</v>
+        <v>8177</v>
       </c>
       <c r="C14" s="2">
-        <v>4613</v>
+        <v>8866</v>
       </c>
       <c r="D14" s="2">
-        <v>4326</v>
+        <v>7508</v>
       </c>
       <c r="E14" s="2">
-        <v>4421</v>
+        <v>7493</v>
       </c>
       <c r="F14" s="2">
-        <v>4489</v>
+        <v>6827</v>
       </c>
       <c r="G14" s="2">
-        <v>5138</v>
+        <v>6830</v>
       </c>
       <c r="H14" s="2">
-        <v>5538</v>
+        <v>7440</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>5690</v>
+        <v>4366</v>
       </c>
       <c r="C15" s="2">
-        <v>6584</v>
+        <v>4613</v>
       </c>
       <c r="D15" s="2">
-        <v>5607</v>
+        <v>4326</v>
       </c>
       <c r="E15" s="2">
-        <v>5730</v>
+        <v>4421</v>
       </c>
       <c r="F15" s="2">
-        <v>5750</v>
+        <v>4489</v>
       </c>
       <c r="G15" s="2">
-        <v>3542</v>
+        <v>5138</v>
       </c>
       <c r="H15" s="2">
-        <v>2717</v>
+        <v>5538</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>14507</v>
+        <v>5690</v>
       </c>
       <c r="C16" s="2">
-        <v>15187</v>
+        <v>6584</v>
       </c>
       <c r="D16" s="2">
-        <v>13410</v>
+        <v>5607</v>
       </c>
       <c r="E16" s="2">
-        <v>13713</v>
+        <v>5730</v>
       </c>
       <c r="F16" s="2">
-        <v>14337</v>
+        <v>5750</v>
       </c>
       <c r="G16" s="2">
-        <v>14450</v>
+        <v>3542</v>
       </c>
       <c r="H16" s="2">
-        <v>14762</v>
+        <v>2717</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>-8714</v>
+        <v>14507</v>
       </c>
       <c r="C17" s="2">
-        <v>-9261</v>
+        <v>15187</v>
       </c>
       <c r="D17" s="2">
-        <v>-8114</v>
+        <v>13410</v>
       </c>
       <c r="E17" s="2">
-        <v>-8388</v>
+        <v>13713</v>
       </c>
       <c r="F17" s="2">
-        <v>-8767</v>
+        <v>14337</v>
       </c>
       <c r="G17" s="2">
-        <v>-8888</v>
+        <v>14450</v>
       </c>
       <c r="H17" s="2">
-        <v>-9291</v>
+        <v>14762</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-8714</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-9261</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-8114</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-8388</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-8767</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-8888</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-9291</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="7">
-        <f>B16+B17</f>
+      <c r="B19" s="7">
+        <f>B17+B18</f>
         <v>5793</v>
       </c>
-      <c r="C18" s="7">
-        <f t="shared" ref="C18:I18" si="2">C16+C17</f>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:I19" si="2">C17+C18</f>
         <v>5926</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <f t="shared" si="2"/>
         <v>5296</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <f t="shared" si="2"/>
         <v>5325</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="2"/>
         <v>5570</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="2"/>
         <v>5562</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>5471</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1099,7 +1116,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1112,7 +1129,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1125,50 +1142,63 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>1095</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>1031</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>828</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>839</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <v>906</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>895</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="2">
         <v>766</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I28" s="7">
         <f>I2*0.025</f>
         <v>925</v>
       </c>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E65C6-6CA4-435C-90E3-C699573F83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C5D50-2C38-4D66-86A5-107F366EBE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Revenue</t>
   </si>
@@ -111,9 +111,6 @@
     <t>PPE_Gross</t>
   </si>
   <si>
-    <t>Accum Depr</t>
-  </si>
-  <si>
     <t>OtherBS_CA</t>
   </si>
   <si>
@@ -127,6 +124,18 @@
   </si>
   <si>
     <t>TaxExp</t>
+  </si>
+  <si>
+    <t>PPE_Accum</t>
+  </si>
+  <si>
+    <t>IA_Gross</t>
+  </si>
+  <si>
+    <t>IA_Accum</t>
+  </si>
+  <si>
+    <t>IA_Net</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +563,7 @@
     <col min="5" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +600,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +629,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -649,7 +658,7 @@
         <v>25306.218583769834</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -686,7 +695,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -715,9 +724,8 @@
         <f>I2*0.145</f>
         <v>5365</v>
       </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -754,7 +762,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -791,7 +799,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -818,9 +826,9 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>1601</v>
@@ -845,7 +853,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -872,7 +880,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -899,7 +907,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -914,7 +922,7 @@
         <v>17497</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -929,7 +937,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -956,7 +964,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -983,7 +991,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1047,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>-8714</v>
@@ -1103,7 +1111,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1116,7 +1124,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1129,20 +1137,44 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="7">
+        <f>B20+B21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:I22" si="3">C20+C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1155,50 +1187,89 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B31" s="2">
         <v>1095</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <v>1031</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D31" s="2">
         <v>828</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E31" s="2">
         <v>839</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F31" s="2">
         <v>906</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G31" s="2">
         <v>895</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H31" s="2">
         <v>766</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I31" s="7">
         <f>I2*0.025</f>
         <v>925</v>
       </c>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C5D50-2C38-4D66-86A5-107F366EBE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F4A21-B770-4058-8803-FF73D41257D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -197,16 +197,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -541,7 +538,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.75</v>
       </c>
     </row>
@@ -552,7 +549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -560,10 +557,10 @@
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -572,7 +569,7 @@
         <v>2016</v>
       </c>
       <c r="C1">
-        <f t="shared" ref="C1:I1" si="0">B1+1</f>
+        <f t="shared" ref="C1:H1" si="0">B1+1</f>
         <v>2017</v>
       </c>
       <c r="D1">
@@ -595,12 +592,8 @@
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -625,11 +618,8 @@
       <c r="H2" s="2">
         <v>35466</v>
       </c>
-      <c r="I2" s="3">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -654,11 +644,8 @@
       <c r="H3" s="2">
         <v>23825</v>
       </c>
-      <c r="I3" s="3">
-        <v>25306.218583769834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -690,12 +677,8 @@
         <f>657+547</f>
         <v>1204</v>
       </c>
-      <c r="I4" s="8">
-        <f>I2*0.032</f>
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -720,86 +703,74 @@
       <c r="H5" s="2">
         <v>5214</v>
       </c>
-      <c r="I5" s="6">
-        <f>I2*0.145</f>
-        <v>5365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>Input!$C$3</f>
         <v>0.75</v>
       </c>
-      <c r="I6" s="5">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f>B5-B4*B6</f>
         <v>4801.5</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" ref="C7:I7" si="1">C5-C4*C6</f>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:H7" si="1">C5-C4*C6</f>
         <v>5250.75</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
         <v>5214</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>4703</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>4020.5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>3880.75</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>4311</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>4477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -824,9 +795,8 @@
       <c r="H8" s="2">
         <v>414</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -851,9 +821,8 @@
       <c r="H9" s="2">
         <v>1412</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -878,9 +847,8 @@
       <c r="H10" s="2">
         <v>1730</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -905,9 +873,8 @@
       <c r="H11" s="2">
         <v>14254</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -917,12 +884,8 @@
       <c r="H12" s="2">
         <v>17497</v>
       </c>
-      <c r="I12" s="7">
-        <f>H12</f>
-        <v>17497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -932,12 +895,8 @@
       <c r="H13" s="2">
         <v>3222</v>
       </c>
-      <c r="I13" s="7">
-        <f>H13</f>
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -962,9 +921,8 @@
       <c r="H14" s="2">
         <v>7440</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -989,9 +947,8 @@
       <c r="H15" s="2">
         <v>5538</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1016,9 +973,8 @@
       <c r="H16" s="2">
         <v>2717</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1043,9 +999,8 @@
       <c r="H17" s="2">
         <v>14762</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1070,181 +1025,180 @@
       <c r="H18" s="2">
         <v>-9291</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <f>B17+B18</f>
         <v>5793</v>
       </c>
-      <c r="C19" s="7">
-        <f t="shared" ref="C19:I19" si="2">C17+C18</f>
+      <c r="C19" s="5">
+        <f t="shared" ref="C19:H19" si="2">C17+C18</f>
         <v>5926</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <f t="shared" si="2"/>
         <v>5296</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>5325</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
         <v>5570</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>5562</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>5471</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>4634</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4496</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4139</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3734</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3560</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3613</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <f>B20+B21</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" ref="C22:I22" si="3">C20+C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+        <v>4634</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:H22" si="3">C20+C21</f>
+        <v>4496</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+        <v>4139</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
+        <v>3734</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
+        <v>3560</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+        <v>3613</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1268,10 +1222,6 @@
       </c>
       <c r="H31" s="2">
         <v>766</v>
-      </c>
-      <c r="I31" s="7">
-        <f>I2*0.025</f>
-        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F4A21-B770-4058-8803-FF73D41257D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F88EC-0864-4A7C-ADF4-B7D40E5E4DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F88EC-0864-4A7C-ADF4-B7D40E5E4DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF407872-39E9-430C-AF7A-684A7C8BB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -551,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF407872-39E9-430C-AF7A-684A7C8BB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D413184-14DA-4EA3-9D4F-BE36A04F318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Revenue</t>
   </si>
@@ -51,12 +51,6 @@
     <t>COS</t>
   </si>
   <si>
-    <t>Opex_NonDepr</t>
-  </si>
-  <si>
-    <t>Percent_Depr_SGA</t>
-  </si>
-  <si>
     <t>Depreciation in SG&amp;A</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Goodwill</t>
   </si>
   <si>
-    <t>Intangibles</t>
-  </si>
-  <si>
     <t>Total_BS_CA</t>
   </si>
   <si>
@@ -96,15 +87,6 @@
     <t>Total_BS_L</t>
   </si>
   <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>PPE_Net</t>
   </si>
   <si>
@@ -136,6 +118,33 @@
   </si>
   <si>
     <t>IA_Net</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>Stmt</t>
+  </si>
+  <si>
+    <t>Idx_Stmt</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>ST_Inv</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +173,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,23 +195,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,7 +539,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>0.75</v>
@@ -549,680 +552,738 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1">
         <f>Input!C2</f>
         <v>2016</v>
       </c>
-      <c r="C1">
-        <f t="shared" ref="C1:H1" si="0">B1+1</f>
+      <c r="E1">
+        <f t="shared" ref="E1:J1" si="0">D1+1</f>
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>39302</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>40534</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>41802</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>36709</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>32637</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>34392</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>35466</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>27677</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>28144</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>29046</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>24339</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>22169</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>23394</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>23825</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
         <f>726+304</f>
         <v>1030</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <f>717+398</f>
         <v>1115</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <f>721+395</f>
         <v>1116</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f>673+415</f>
         <v>1088</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <f>644+358</f>
         <v>1002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <f>674+549</f>
         <v>1223</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <f>657+547</f>
         <v>1204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
         <v>5574</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>6087</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>6051</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>5519</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>4772</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>4798</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>5214</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-      <c r="C6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-      <c r="F6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="4">
-        <f>Input!$C$3</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>338</v>
+      </c>
+      <c r="E6" s="2">
+        <v>316</v>
+      </c>
+      <c r="F6" s="2">
+        <v>367</v>
+      </c>
+      <c r="G6" s="2">
+        <v>357</v>
+      </c>
+      <c r="H6" s="2">
+        <v>359</v>
+      </c>
+      <c r="I6" s="2">
+        <v>343</v>
+      </c>
+      <c r="J6" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1601</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5362</v>
+      </c>
+      <c r="F7" s="2">
+        <v>659</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1329</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1147</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1625</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>10959</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8177</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8866</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7508</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7493</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6827</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6830</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
-        <f>B5-B4*B6</f>
-        <v>4801.5</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" ref="C7:H7" si="1">C5-C4*C6</f>
-        <v>5250.75</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D11" s="2">
+        <v>4366</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4613</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4326</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4421</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4489</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5138</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2">
+        <v>227</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1351</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2872</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1376</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2445</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2">
+        <v>12182</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12573</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9756</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11110</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16342</v>
+      </c>
+      <c r="I14" s="2">
+        <v>15123</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="I15" s="2">
+        <v>17756</v>
+      </c>
+      <c r="J15" s="2">
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2">
+        <v>5690</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6584</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5607</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5730</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5750</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3542</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2">
+        <v>14507</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15187</v>
+      </c>
+      <c r="F17" s="2">
+        <v>13410</v>
+      </c>
+      <c r="G17" s="2">
+        <v>13713</v>
+      </c>
+      <c r="H17" s="2">
+        <v>14337</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14450</v>
+      </c>
+      <c r="J17" s="2">
+        <v>14762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2">
+        <v>-8714</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-9261</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-8114</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-8388</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-8767</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-8888</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-9291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
+        <f>D17+D18</f>
+        <v>5793</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:J19" si="1">E17+E18</f>
+        <v>5926</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>5214</v>
-      </c>
-      <c r="E7" s="5">
+        <v>5296</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>4703</v>
-      </c>
-      <c r="F7" s="5">
+        <v>5325</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>4020.5</v>
-      </c>
-      <c r="G7" s="5">
+        <v>5570</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="1"/>
-        <v>3880.75</v>
-      </c>
-      <c r="H7" s="5">
+        <v>5562</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>338</v>
-      </c>
-      <c r="C8" s="2">
-        <v>316</v>
-      </c>
-      <c r="D8" s="2">
-        <v>367</v>
-      </c>
-      <c r="E8" s="2">
-        <v>357</v>
-      </c>
-      <c r="F8" s="2">
-        <v>359</v>
-      </c>
-      <c r="G8" s="2">
-        <v>343</v>
-      </c>
-      <c r="H8" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1601</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5362</v>
-      </c>
-      <c r="D9" s="2">
-        <v>659</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1329</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1147</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1625</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>227</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1351</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2872</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1376</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2445</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1803</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12182</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12573</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9756</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11110</v>
-      </c>
-      <c r="F11" s="2">
-        <v>16342</v>
-      </c>
-      <c r="G11" s="2">
-        <v>15123</v>
-      </c>
-      <c r="H11" s="2">
-        <v>14254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2">
-        <v>17756</v>
-      </c>
-      <c r="H12" s="2">
-        <v>17497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2">
+        <v>4634</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4496</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4139</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3734</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3560</v>
+      </c>
+      <c r="I20" s="2">
         <v>3613</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J20" s="2">
         <v>3222</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8177</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8866</v>
-      </c>
-      <c r="D14" s="2">
-        <v>7508</v>
-      </c>
-      <c r="E14" s="2">
-        <v>7493</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6827</v>
-      </c>
-      <c r="G14" s="2">
-        <v>6830</v>
-      </c>
-      <c r="H14" s="2">
-        <v>7440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4366</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4613</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4326</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4421</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4489</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5138</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5690</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6584</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5607</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5730</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5750</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3542</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2">
-        <v>14507</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15187</v>
-      </c>
-      <c r="D17" s="2">
-        <v>13410</v>
-      </c>
-      <c r="E17" s="2">
-        <v>13713</v>
-      </c>
-      <c r="F17" s="2">
-        <v>14337</v>
-      </c>
-      <c r="G17" s="2">
-        <v>14450</v>
-      </c>
-      <c r="H17" s="2">
-        <v>14762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-8714</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-9261</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-8114</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-8388</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-8767</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-8888</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-9291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
-        <f>B17+B18</f>
-        <v>5793</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" ref="C19:H19" si="2">C17+C18</f>
-        <v>5926</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="2"/>
-        <v>5296</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="2"/>
-        <v>5325</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>5570</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="2"/>
-        <v>5562</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="2"/>
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4634</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4496</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4139</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3734</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3560</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3613</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5">
-        <f>B20+B21</f>
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4">
+        <f>D20+D21</f>
         <v>4634</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" ref="C22:H22" si="3">C20+C21</f>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:J22" si="2">E20+E21</f>
         <v>4496</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="3"/>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
         <v>4139</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="3"/>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
         <v>3734</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="3"/>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
         <v>3560</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="3"/>
+      <c r="I22" s="4">
+        <f t="shared" si="2"/>
         <v>3613</v>
       </c>
-      <c r="H22" s="5">
-        <f t="shared" si="3"/>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
         <v>3222</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>19</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>20</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>21</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>12</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="2">
+        <v>25372</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="I27" s="2">
+        <v>64470</v>
+      </c>
+      <c r="J27" s="2">
+        <v>62275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="I28" s="2">
+        <v>19508</v>
+      </c>
+      <c r="J28" s="2">
+        <v>19938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2">
         <v>1095</v>
       </c>
-      <c r="C31" s="2">
+      <c r="E30" s="2">
         <v>1031</v>
       </c>
-      <c r="D31" s="2">
+      <c r="F30" s="2">
         <v>828</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G30" s="2">
         <v>839</v>
       </c>
-      <c r="F31" s="2">
+      <c r="H30" s="2">
         <v>906</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I30" s="2">
         <v>895</v>
       </c>
-      <c r="H31" s="2">
+      <c r="J30" s="2">
         <v>766</v>
       </c>
     </row>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3466E651-B49F-482C-BB87-DB58C6FC3F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE852BF-E044-49B1-81D1-F9CFEA710FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE852BF-E044-49B1-81D1-F9CFEA710FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0E680-148A-494D-92A3-F8DC42A8F664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
   <si>
     <t>Revenue</t>
   </si>
@@ -78,313 +78,280 @@
     <t>Goodwill</t>
   </si>
   <si>
-    <t>Total_BS_CA</t>
-  </si>
-  <si>
-    <t>Total_BS_A</t>
-  </si>
-  <si>
-    <t>Total_BS_CL</t>
-  </si>
-  <si>
-    <t>Total_BS_L</t>
+    <t>TaxExp</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>Stmt</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>ST_Inv</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Depreciation (Non-COS)</t>
+  </si>
+  <si>
+    <t>SG&amp;A Expenses</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Other Expense / Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>Sub-total</t>
+  </si>
+  <si>
+    <t>Actual Only</t>
+  </si>
+  <si>
+    <t>Pre-tax Profit</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>YoY Growth</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>ST Investments</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Other CA</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Net PPE</t>
+  </si>
+  <si>
+    <t>Intangible Assets</t>
+  </si>
+  <si>
+    <t>LT Investments</t>
+  </si>
+  <si>
+    <t>Other NCA</t>
+  </si>
+  <si>
+    <t>Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>% Revenue</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Other CL</t>
+  </si>
+  <si>
+    <t>ST Borrowing</t>
+  </si>
+  <si>
+    <t>LT Debt - Current</t>
+  </si>
+  <si>
+    <t>% SGA (Non Depr)</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>LT Debt - Non-Current</t>
+  </si>
+  <si>
+    <t>Other NCL</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>% Cash</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Other Items</t>
+  </si>
+  <si>
+    <t>Cash from Operations</t>
+  </si>
+  <si>
+    <t>Net Acquisitions</t>
+  </si>
+  <si>
+    <t>Other Investments</t>
+  </si>
+  <si>
+    <t>Cash from Investments</t>
+  </si>
+  <si>
+    <t>Beginning Cash</t>
+  </si>
+  <si>
+    <t>Ending Cash</t>
+  </si>
+  <si>
+    <t>Cash from Financing</t>
+  </si>
+  <si>
+    <t>Net Borrowing - ST</t>
+  </si>
+  <si>
+    <t>Net Borrowing - LT</t>
+  </si>
+  <si>
+    <t>% Total Debt</t>
+  </si>
+  <si>
+    <t>Stock Issuance</t>
+  </si>
+  <si>
+    <t>Stock Repurchases</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Other Financing</t>
+  </si>
+  <si>
+    <t>DPS Growth</t>
+  </si>
+  <si>
+    <t>% Market Cap</t>
+  </si>
+  <si>
+    <t>Asset Life</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>LT_Inv</t>
+  </si>
+  <si>
+    <t>Other_NCA</t>
+  </si>
+  <si>
+    <t>Other_CA</t>
+  </si>
+  <si>
+    <t>ST_Borrow</t>
+  </si>
+  <si>
+    <t>Other_CL</t>
+  </si>
+  <si>
+    <t>Other_NCL</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Stock Compensation</t>
+  </si>
+  <si>
+    <t>Stock_Comp</t>
+  </si>
+  <si>
+    <t>Other_CFO</t>
+  </si>
+  <si>
+    <t>Net_Acq</t>
+  </si>
+  <si>
+    <t>LT_Borrow</t>
+  </si>
+  <si>
+    <t>CS_Issue</t>
+  </si>
+  <si>
+    <t>CS_Repo</t>
+  </si>
+  <si>
+    <t>Other_CFI</t>
+  </si>
+  <si>
+    <t>Other_CFF</t>
+  </si>
+  <si>
+    <t>PPE_Gross</t>
   </si>
   <si>
     <t>PPE_Net</t>
   </si>
   <si>
-    <t>PPE_Gross</t>
-  </si>
-  <si>
-    <t>OtherBS_NCA</t>
-  </si>
-  <si>
-    <t>OtherBS_CL</t>
-  </si>
-  <si>
-    <t>OtherBS_NCL</t>
-  </si>
-  <si>
-    <t>TaxExp</t>
-  </si>
-  <si>
-    <t>PPE_Accum</t>
-  </si>
-  <si>
-    <t>IA_Gross</t>
-  </si>
-  <si>
-    <t>IA_Accum</t>
-  </si>
-  <si>
-    <t>IA_Net</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>Inv</t>
-  </si>
-  <si>
-    <t>Stmt</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>ST_Inv</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Depreciation (Non-COS)</t>
-  </si>
-  <si>
-    <t>SG&amp;A Expenses</t>
-  </si>
-  <si>
-    <t>Operating Profit</t>
-  </si>
-  <si>
-    <t>Other Expense / Income</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>Sub-total</t>
-  </si>
-  <si>
-    <t>Actual Only</t>
-  </si>
-  <si>
-    <t>Pre-tax Profit</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>YoY Growth</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>ST Investments</t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Other CA</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Net PPE</t>
-  </si>
-  <si>
-    <t>Intangible Assets</t>
-  </si>
-  <si>
-    <t>LT Investments</t>
-  </si>
-  <si>
-    <t>Other NCA</t>
-  </si>
-  <si>
-    <t>Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>Turnover</t>
-  </si>
-  <si>
-    <t>% Revenue</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>Other CL</t>
-  </si>
-  <si>
-    <t>ST Borrowing</t>
-  </si>
-  <si>
-    <t>LT Debt - Current</t>
-  </si>
-  <si>
-    <t>% SGA (Non Depr)</t>
-  </si>
-  <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
-    <t>LT Debt - Non-Current</t>
-  </si>
-  <si>
-    <t>Other NCL</t>
-  </si>
-  <si>
-    <t>Non-Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
-    <t>% Cash</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Other Items</t>
-  </si>
-  <si>
-    <t>Cash from Operations</t>
-  </si>
-  <si>
-    <t>Net Acquisitions</t>
-  </si>
-  <si>
-    <t>Other Investments</t>
-  </si>
-  <si>
-    <t>Cash from Investments</t>
-  </si>
-  <si>
-    <t>Beginning Cash</t>
-  </si>
-  <si>
-    <t>Ending Cash</t>
-  </si>
-  <si>
-    <t>Cash from Financing</t>
-  </si>
-  <si>
-    <t>Net Borrowing - ST</t>
-  </si>
-  <si>
-    <t>Net Borrowing - LT</t>
-  </si>
-  <si>
-    <t>% Total Debt</t>
-  </si>
-  <si>
-    <t>Stock Issuance</t>
-  </si>
-  <si>
-    <t>Stock Repurchases</t>
-  </si>
-  <si>
-    <t>Dividends</t>
-  </si>
-  <si>
-    <t>Other Financing</t>
-  </si>
-  <si>
-    <t>DPS Growth</t>
-  </si>
-  <si>
-    <t>% Market Cap</t>
-  </si>
-  <si>
-    <t>Asset Life</t>
-  </si>
-  <si>
-    <t>Cost of Debt</t>
-  </si>
-  <si>
-    <t>Net_PPE</t>
-  </si>
-  <si>
-    <t>LT_Inv</t>
-  </si>
-  <si>
-    <t>Intangibles</t>
-  </si>
-  <si>
-    <t>Other_NCA</t>
-  </si>
-  <si>
-    <t>Other_CA</t>
-  </si>
-  <si>
-    <t>ST_Borrow</t>
-  </si>
-  <si>
-    <t>Other_CL</t>
-  </si>
-  <si>
-    <t>Other_NCL</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Stock Compensation</t>
-  </si>
-  <si>
-    <t>Stock_Comp</t>
-  </si>
-  <si>
-    <t>Other_CFO</t>
-  </si>
-  <si>
-    <t>Net_Acq</t>
-  </si>
-  <si>
-    <t>LT_Borrow</t>
-  </si>
-  <si>
-    <t>CS_Issue</t>
-  </si>
-  <si>
-    <t>CS_Repo</t>
-  </si>
-  <si>
-    <t>Other_CFI</t>
-  </si>
-  <si>
-    <t>Other_CFF</t>
+    <t>Intangibles_Gross</t>
+  </si>
+  <si>
+    <t>Intangibles_Net</t>
   </si>
 </sst>
 </file>
@@ -459,12 +426,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,9 +779,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -830,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C1">
         <f>Input!C2</f>
@@ -866,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>39302</v>
@@ -895,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>27677</v>
@@ -924,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <f>726+304</f>
@@ -960,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>5574</v>
@@ -989,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>338</v>
@@ -1015,10 +983,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>1601</v>
@@ -1044,10 +1012,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>7843</v>
@@ -1073,10 +1041,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>1520</v>
@@ -1102,10 +1070,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>8177</v>
@@ -1131,10 +1099,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>4366</v>
@@ -1160,10 +1128,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>1152</v>
@@ -1189,1088 +1157,785 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>5793</v>
+        <v>14507</v>
       </c>
       <c r="D13" s="2">
-        <v>5926</v>
+        <v>15187</v>
       </c>
       <c r="E13" s="2">
-        <v>5296</v>
+        <v>13410</v>
       </c>
       <c r="F13" s="2">
-        <v>5325</v>
+        <v>13713</v>
       </c>
       <c r="G13" s="2">
-        <v>5570</v>
+        <v>14337</v>
       </c>
       <c r="H13" s="2">
-        <v>5562</v>
+        <v>14450</v>
       </c>
       <c r="I13" s="2">
-        <v>5471</v>
+        <v>14762</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
-        <v>587</v>
+        <v>5793</v>
       </c>
       <c r="D14" s="2">
-        <v>667</v>
+        <v>5926</v>
       </c>
       <c r="E14" s="2">
-        <v>742</v>
+        <v>5296</v>
       </c>
       <c r="F14" s="2">
-        <v>588</v>
+        <v>5325</v>
       </c>
       <c r="G14" s="2">
-        <v>685</v>
+        <v>5570</v>
       </c>
       <c r="H14" s="2">
-        <v>1222</v>
+        <v>5562</v>
       </c>
       <c r="I14" s="2">
-        <v>945</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>4634</v>
+        <v>587</v>
       </c>
       <c r="D15" s="2">
-        <v>4496</v>
+        <v>667</v>
       </c>
       <c r="E15" s="2">
-        <v>4139</v>
+        <v>742</v>
       </c>
       <c r="F15" s="2">
-        <v>3734</v>
+        <v>588</v>
       </c>
       <c r="G15" s="2">
-        <v>3560</v>
+        <v>685</v>
       </c>
       <c r="H15" s="2">
-        <v>3613</v>
+        <v>1222</v>
       </c>
       <c r="I15" s="2">
-        <v>3222</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>17707</v>
+        <v>7313</v>
       </c>
       <c r="D16" s="2">
-        <v>18277</v>
+        <v>7627</v>
       </c>
       <c r="E16" s="2">
-        <v>15546</v>
+        <v>7486</v>
       </c>
       <c r="F16" s="2">
-        <v>15563</v>
+        <v>7471</v>
       </c>
       <c r="G16" s="2">
-        <v>16058</v>
+        <v>7719</v>
       </c>
       <c r="H16" s="2">
-        <v>17756</v>
+        <v>8058</v>
       </c>
       <c r="I16" s="2">
-        <v>17497</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
+        <v>4634</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4496</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4139</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3734</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3560</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3613</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17707</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18277</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15546</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15563</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16058</v>
+      </c>
+      <c r="H18" s="2">
+        <v>17756</v>
+      </c>
+      <c r="I18" s="2">
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
         <f>417+347+1603</f>
         <v>2367</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <f>479+251+3372</f>
         <v>4102</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E19" s="2">
         <f>437+382+6869</f>
         <v>7688</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F19" s="2">
         <f>392+86+8688</f>
         <v>9166</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <f>366+760+9412</f>
         <v>10538</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H19" s="2">
         <f>322+489+10134</f>
         <v>10945</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I19" s="2">
         <f>224+421+9513</f>
         <v>10158</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5690</v>
-      </c>
-      <c r="D18" s="2">
-        <v>6584</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5607</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5730</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5750</v>
-      </c>
-      <c r="H18" s="2">
-        <v>6484</v>
-      </c>
-      <c r="I18" s="2">
-        <v>6329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2">
-        <v>227</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1351</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2872</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1376</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2445</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1803</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1730</v>
-      </c>
-    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>3366</v>
+        <v>5690</v>
       </c>
       <c r="D20" s="2">
-        <v>3958</v>
+        <v>6584</v>
       </c>
       <c r="E20" s="2">
-        <v>3586</v>
+        <v>5607</v>
       </c>
       <c r="F20" s="2">
-        <v>3516</v>
+        <v>5730</v>
       </c>
       <c r="G20" s="2">
-        <v>3597</v>
+        <v>5750</v>
       </c>
       <c r="H20" s="2">
-        <v>3542</v>
+        <v>6484</v>
       </c>
       <c r="I20" s="2">
-        <v>2717</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>7048</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2">
-        <v>6968</v>
+        <v>1351</v>
       </c>
       <c r="E21" s="2">
-        <v>6859</v>
+        <v>2872</v>
       </c>
       <c r="F21" s="2">
-        <v>7476</v>
+        <v>1376</v>
       </c>
       <c r="G21" s="2">
-        <v>7405</v>
+        <v>2445</v>
       </c>
       <c r="H21" s="2">
-        <v>7679</v>
+        <v>1803</v>
       </c>
       <c r="I21" s="2">
-        <v>9162</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>12182</v>
+        <v>3366</v>
       </c>
       <c r="D22" s="2">
-        <v>12573</v>
+        <v>3958</v>
       </c>
       <c r="E22" s="2">
-        <v>9756</v>
+        <v>3586</v>
       </c>
       <c r="F22" s="2">
-        <v>11110</v>
+        <v>3516</v>
       </c>
       <c r="G22" s="2">
-        <v>16342</v>
+        <v>3597</v>
       </c>
       <c r="H22" s="2">
-        <v>14254</v>
+        <v>3542</v>
       </c>
       <c r="I22" s="2">
-        <v>15123</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
+        <v>7048</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6968</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6859</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7476</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7405</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7679</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12182</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12573</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9756</v>
+      </c>
+      <c r="F24" s="2">
+        <v>11110</v>
+      </c>
+      <c r="G24" s="2">
+        <v>16342</v>
+      </c>
+      <c r="H24" s="2">
+        <v>14254</v>
+      </c>
+      <c r="I24" s="2">
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
         <f>486+473+1014+4110+3</f>
         <v>6086</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <f>2664+512+2260+5930+5</f>
         <v>11371</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="2">
         <f>1713+344+2269+6402+7</f>
         <v>10735</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="2">
         <f>1670+326+1996+6766+7</f>
         <v>10765</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <f>2113+242+1920+6975+7</f>
         <v>11257</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <f>2364+208+1800+7087+7</f>
         <v>11466</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I25" s="2">
         <f>2093+146+1180+6469+7</f>
         <v>9895</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24:H24" si="1">C4</f>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:H26" si="1">C4</f>
         <v>1030</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26" s="2">
         <f t="shared" si="1"/>
         <v>1115</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>1116</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>1002</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>1223</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I26" s="2">
         <f>I4</f>
         <v>1204</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="2">
-        <v>184</v>
-      </c>
-      <c r="D25" s="2">
-        <v>176</v>
-      </c>
-      <c r="E25" s="2">
-        <v>175</v>
-      </c>
-      <c r="F25" s="2">
-        <v>153</v>
-      </c>
-      <c r="G25" s="2">
-        <v>168</v>
-      </c>
-      <c r="H25" s="2">
-        <v>217</v>
-      </c>
-      <c r="I25" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="2">
-        <f>5498-C25-C24</f>
-        <v>4284</v>
-      </c>
-      <c r="D26" s="2">
-        <f>5966-D25-D24</f>
-        <v>4675</v>
-      </c>
-      <c r="E26" s="2">
-        <f>6434-E25-E24</f>
-        <v>5143</v>
-      </c>
-      <c r="F26" s="2">
-        <f>6897-F25-F24</f>
-        <v>5656</v>
-      </c>
-      <c r="G26" s="2">
-        <f>6208-G25-G24</f>
-        <v>5038</v>
-      </c>
-      <c r="H26" s="2">
-        <f>6038-H25-H24</f>
-        <v>4598</v>
-      </c>
-      <c r="I26" s="2">
-        <f>5274-I25-I24</f>
-        <v>3882</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2">
-        <v>-1095</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2">
-        <v>-1031</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2">
-        <v>-828</v>
+        <v>175</v>
       </c>
       <c r="F27" s="2">
-        <v>-839</v>
+        <v>153</v>
       </c>
       <c r="G27" s="2">
-        <v>-906</v>
+        <v>168</v>
       </c>
       <c r="H27" s="2">
-        <v>-895</v>
+        <v>217</v>
       </c>
       <c r="I27" s="2">
-        <v>-766</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2">
+        <f>5498-C27-C26</f>
+        <v>4284</v>
+      </c>
+      <c r="D28" s="2">
+        <f>5966-D27-D26</f>
+        <v>4675</v>
+      </c>
+      <c r="E28" s="2">
+        <f>6434-E27-E26</f>
+        <v>5143</v>
+      </c>
+      <c r="F28" s="2">
+        <f>6897-F27-F26</f>
+        <v>5656</v>
+      </c>
+      <c r="G28" s="2">
+        <f>6208-G27-G26</f>
+        <v>5038</v>
+      </c>
+      <c r="H28" s="2">
+        <f>6038-H27-H26</f>
+        <v>4598</v>
+      </c>
+      <c r="I28" s="2">
+        <f>5274-I27-I26</f>
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-1095</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1031</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-828</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-839</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-906</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-895</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2">
         <f>-2573+296</f>
         <v>-2277</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>-82</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>-535</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>-50</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <f>0-149-261</f>
         <v>-410</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <f>586+192-1326+203</f>
         <v>-345</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I30" s="2">
         <f>409+369-178</f>
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="2">
-        <f>-3342-C28-C27</f>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2">
+        <f>-3342-C30-C29</f>
         <v>30</v>
       </c>
-      <c r="D29" s="2">
-        <f>-3574-D28-D27</f>
+      <c r="D31" s="2">
+        <f>-3574-D30-D29</f>
         <v>-2461</v>
       </c>
-      <c r="E29" s="2">
-        <f>1027-E28-E27</f>
+      <c r="E31" s="2">
+        <f>1027-E30-E29</f>
         <v>2390</v>
       </c>
-      <c r="F29" s="2">
-        <f>-533-F28-F27</f>
+      <c r="F31" s="2">
+        <f>-533-F30-F29</f>
         <v>356</v>
       </c>
-      <c r="G29" s="2">
-        <f>-987-G28-G27</f>
+      <c r="G31" s="2">
+        <f>-987-G30-G29</f>
         <v>329</v>
       </c>
-      <c r="H29" s="2">
-        <f>-1061-H28-H27</f>
+      <c r="H31" s="2">
+        <f>-1061-H30-H29</f>
         <v>179</v>
       </c>
-      <c r="I29" s="2">
-        <f>-93-I28-I27</f>
+      <c r="I31" s="2">
+        <f>-93-I30-I29</f>
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2">
         <v>-2464</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <f>13701-13532</f>
         <v>169</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="2">
         <f>23891-24095</f>
         <v>-204</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G32" s="2">
         <f>10474-10400</f>
         <v>74</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="2">
         <f>5194-5190</f>
         <v>4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I32" s="2">
         <f>7661-8447</f>
         <v>-786</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2">
         <f>9245-2839</f>
         <v>6406</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="2">
         <f>1238-292</f>
         <v>946</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="2">
         <f>27-1330</f>
         <v>-1303</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F33" s="2">
         <f>2726-2903</f>
         <v>-177</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G33" s="2">
         <f>10125-4308</f>
         <v>5817</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="2">
         <f>2517-4917</f>
         <v>-2400</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I33" s="2">
         <f>2953-1850</f>
         <v>1103</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="2">
-        <v>409</v>
-      </c>
-      <c r="D32" s="2">
-        <v>520</v>
-      </c>
-      <c r="E32" s="2">
-        <v>267</v>
-      </c>
-      <c r="F32" s="2">
-        <v>498</v>
-      </c>
-      <c r="G32" s="2">
-        <v>393</v>
-      </c>
-      <c r="H32" s="2">
-        <v>229</v>
-      </c>
-      <c r="I32" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-2079</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-2889</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-4000</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-4400</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-3714</v>
-      </c>
-      <c r="H33" s="2">
-        <v>-3380</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-4200</v>
-      </c>
-    </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2">
-        <v>-1915</v>
+        <v>409</v>
       </c>
       <c r="D34" s="2">
-        <v>-2119</v>
+        <v>520</v>
       </c>
       <c r="E34" s="2">
-        <v>-2272</v>
+        <v>267</v>
       </c>
       <c r="F34" s="2">
-        <v>-2442</v>
+        <v>498</v>
       </c>
       <c r="G34" s="2">
-        <v>-2592</v>
+        <v>393</v>
       </c>
       <c r="H34" s="2">
-        <v>-2626</v>
+        <v>229</v>
       </c>
       <c r="I34" s="2">
-        <v>-2719</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2">
-        <f>346-SUM(C30:C34)</f>
+        <v>-2079</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-2889</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-4000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-4400</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-3714</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-3380</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-4200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-1915</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-2119</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-2272</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-2442</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-2592</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-2626</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-2719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2">
+        <f>346-SUM(C32:C36)</f>
         <v>-11</v>
       </c>
-      <c r="D35" s="2">
-        <f>-3516-SUM(D30:D34)</f>
+      <c r="D37" s="2">
+        <f>-3516-SUM(D32:D36)</f>
         <v>-143</v>
       </c>
-      <c r="E35" s="2">
-        <f>-5032-SUM(E30:E34)</f>
+      <c r="E37" s="2">
+        <f>-5032-SUM(E32:E36)</f>
         <v>2480</v>
       </c>
-      <c r="F35" s="2">
-        <f>-6600-SUM(F30:F34)</f>
+      <c r="F37" s="2">
+        <f>-6600-SUM(F32:F36)</f>
         <v>-79</v>
       </c>
-      <c r="G35" s="2">
-        <f>-81-SUM(G30:G34)</f>
+      <c r="G37" s="2">
+        <f>-81-SUM(G32:G36)</f>
         <v>-59</v>
       </c>
-      <c r="H35" s="2">
-        <f>-8254-SUM(H30:H34)</f>
+      <c r="H37" s="2">
+        <f>-8254-SUM(H32:H36)</f>
         <v>-81</v>
       </c>
-      <c r="I35" s="2">
-        <f>-6330-SUM(I30:I34)</f>
+      <c r="I37" s="2">
+        <f>-6330-SUM(I32:I36)</f>
         <v>-48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2">
-        <v>227</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1351</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2872</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1376</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2445</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1803</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2">
-        <v>12182</v>
-      </c>
-      <c r="D40" s="2">
-        <v>12573</v>
-      </c>
-      <c r="E40" s="2">
-        <v>9756</v>
-      </c>
-      <c r="F40" s="2">
-        <v>11110</v>
-      </c>
-      <c r="G40" s="2">
-        <v>16342</v>
-      </c>
-      <c r="H40" s="2">
-        <v>15123</v>
-      </c>
-      <c r="I40" s="2">
-        <v>14254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5690</v>
-      </c>
-      <c r="D41" s="2">
-        <v>6584</v>
-      </c>
-      <c r="E41" s="2">
-        <v>5607</v>
-      </c>
-      <c r="F41" s="2">
-        <v>5730</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5750</v>
-      </c>
-      <c r="H41" s="2">
-        <v>3542</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2">
-        <v>14507</v>
-      </c>
-      <c r="D42" s="2">
-        <v>15187</v>
-      </c>
-      <c r="E42" s="2">
-        <v>13410</v>
-      </c>
-      <c r="F42" s="2">
-        <v>13713</v>
-      </c>
-      <c r="G42" s="2">
-        <v>14337</v>
-      </c>
-      <c r="H42" s="2">
-        <v>14450</v>
-      </c>
-      <c r="I42" s="2">
-        <v>14762</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-8714</v>
-      </c>
-      <c r="D43" s="2">
-        <v>-9261</v>
-      </c>
-      <c r="E43" s="2">
-        <v>-8114</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-8388</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-8767</v>
-      </c>
-      <c r="H43" s="2">
-        <v>-8888</v>
-      </c>
-      <c r="I43" s="2">
-        <v>-9291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4">
-        <f>C42+C43</f>
-        <v>5793</v>
-      </c>
-      <c r="D44" s="4">
-        <f t="shared" ref="D44:I44" si="2">D42+D43</f>
-        <v>5926</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="2"/>
-        <v>5296</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="2"/>
-        <v>5325</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="2"/>
-        <v>5570</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="2"/>
-        <v>5562</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="2"/>
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="2">
-        <v>4634</v>
-      </c>
-      <c r="D45" s="2">
-        <v>4496</v>
-      </c>
-      <c r="E45" s="2">
-        <v>4139</v>
-      </c>
-      <c r="F45" s="2">
-        <v>3734</v>
-      </c>
-      <c r="G45" s="2">
-        <v>3560</v>
-      </c>
-      <c r="H45" s="2">
-        <v>3613</v>
-      </c>
-      <c r="I45" s="2">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4">
-        <f>C45+C46</f>
-        <v>4634</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" ref="D47:I47" si="3">D45+D46</f>
-        <v>4496</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="3"/>
-        <v>4139</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="3"/>
-        <v>3734</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="3"/>
-        <v>3560</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="3"/>
-        <v>3613</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="3"/>
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="2">
-        <v>25372</v>
-      </c>
-      <c r="I51" s="2">
-        <v>24982</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="2">
-        <v>64470</v>
-      </c>
-      <c r="I52" s="2">
-        <v>62275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="2">
-        <v>19508</v>
-      </c>
-      <c r="I53" s="2">
-        <v>19938</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1095</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1031</v>
-      </c>
-      <c r="E55" s="2">
-        <v>828</v>
-      </c>
-      <c r="F55" s="2">
-        <v>839</v>
-      </c>
-      <c r="G55" s="2">
-        <v>906</v>
-      </c>
-      <c r="H55" s="2">
-        <v>895</v>
-      </c>
-      <c r="I55" s="2">
-        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -2293,22 +1958,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -2316,10 +1981,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -2327,87 +1992,87 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2429,119 +2094,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -2549,134 +2214,134 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2699,77 +2364,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -2777,123 +2442,123 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0E680-148A-494D-92A3-F8DC42A8F664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D773AE-B3F8-468D-8F72-90926200D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -781,9 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D773AE-B3F8-468D-8F72-90926200D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807CF76-5993-4FD1-96BE-032DA6654762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
   <si>
     <t>Revenue</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Intangibles_Net</t>
+  </si>
+  <si>
+    <t>OthInc</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -952,987 +955,1016 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>338</v>
+        <v>-102</v>
       </c>
       <c r="D6" s="2">
-        <v>316</v>
+        <v>-963</v>
       </c>
       <c r="E6" s="2">
-        <v>367</v>
+        <v>-1149</v>
       </c>
       <c r="F6" s="2">
-        <v>357</v>
+        <v>-1065</v>
       </c>
       <c r="G6" s="2">
-        <v>359</v>
+        <v>-675</v>
       </c>
       <c r="H6" s="2">
-        <v>343</v>
+        <v>-1378</v>
       </c>
       <c r="I6" s="2">
-        <v>414</v>
+        <v>-366</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>1601</v>
+        <v>338</v>
       </c>
       <c r="D7" s="2">
-        <v>5362</v>
+        <v>316</v>
       </c>
       <c r="E7" s="2">
-        <v>659</v>
+        <v>367</v>
       </c>
       <c r="F7" s="2">
-        <v>1329</v>
+        <v>357</v>
       </c>
       <c r="G7" s="2">
-        <v>1147</v>
+        <v>359</v>
       </c>
       <c r="H7" s="2">
-        <v>1625</v>
+        <v>343</v>
       </c>
       <c r="I7" s="2">
-        <v>1412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>7843</v>
+        <v>1601</v>
       </c>
       <c r="D8" s="2">
-        <v>7059</v>
+        <v>5362</v>
       </c>
       <c r="E8" s="2">
-        <v>9287</v>
+        <v>659</v>
       </c>
       <c r="F8" s="2">
-        <v>9067</v>
+        <v>1329</v>
       </c>
       <c r="G8" s="2">
-        <v>14275</v>
+        <v>1147</v>
       </c>
       <c r="H8" s="2">
-        <v>10959</v>
+        <v>1625</v>
       </c>
       <c r="I8" s="2">
-        <v>9627</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>1520</v>
+        <v>7843</v>
       </c>
       <c r="D9" s="2">
-        <v>3758</v>
+        <v>7059</v>
       </c>
       <c r="E9" s="2">
-        <v>1623</v>
+        <v>9287</v>
       </c>
       <c r="F9" s="2">
-        <v>1349</v>
+        <v>9067</v>
       </c>
       <c r="G9" s="2">
-        <v>945</v>
+        <v>14275</v>
       </c>
       <c r="H9" s="2">
-        <v>564</v>
+        <v>10959</v>
       </c>
       <c r="I9" s="2">
-        <v>483</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>8177</v>
+        <v>1520</v>
       </c>
       <c r="D10" s="2">
-        <v>8866</v>
+        <v>3758</v>
       </c>
       <c r="E10" s="2">
-        <v>7508</v>
+        <v>1623</v>
       </c>
       <c r="F10" s="2">
-        <v>7493</v>
+        <v>1349</v>
       </c>
       <c r="G10" s="2">
-        <v>6827</v>
+        <v>945</v>
       </c>
       <c r="H10" s="2">
-        <v>6830</v>
+        <v>564</v>
       </c>
       <c r="I10" s="2">
-        <v>7440</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>4366</v>
+        <v>8177</v>
       </c>
       <c r="D11" s="2">
-        <v>4613</v>
+        <v>8866</v>
       </c>
       <c r="E11" s="2">
-        <v>4326</v>
+        <v>7508</v>
       </c>
       <c r="F11" s="2">
-        <v>4421</v>
+        <v>7493</v>
       </c>
       <c r="G11" s="2">
-        <v>4489</v>
+        <v>6827</v>
       </c>
       <c r="H11" s="2">
-        <v>5138</v>
+        <v>6830</v>
       </c>
       <c r="I11" s="2">
-        <v>5538</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>1152</v>
+        <v>4366</v>
       </c>
       <c r="D12" s="2">
-        <v>1706</v>
+        <v>4613</v>
       </c>
       <c r="E12" s="2">
-        <v>1618</v>
+        <v>4326</v>
       </c>
       <c r="F12" s="2">
-        <v>1973</v>
+        <v>4421</v>
       </c>
       <c r="G12" s="2">
-        <v>1639</v>
+        <v>4489</v>
       </c>
       <c r="H12" s="2">
-        <v>1881</v>
+        <v>5138</v>
       </c>
       <c r="I12" s="2">
-        <v>1894</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>14507</v>
+        <v>1152</v>
       </c>
       <c r="D13" s="2">
-        <v>15187</v>
+        <v>1706</v>
       </c>
       <c r="E13" s="2">
-        <v>13410</v>
+        <v>1618</v>
       </c>
       <c r="F13" s="2">
-        <v>13713</v>
+        <v>1973</v>
       </c>
       <c r="G13" s="2">
-        <v>14337</v>
+        <v>1639</v>
       </c>
       <c r="H13" s="2">
-        <v>14450</v>
+        <v>1881</v>
       </c>
       <c r="I13" s="2">
-        <v>14762</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2">
-        <v>5793</v>
+        <v>14507</v>
       </c>
       <c r="D14" s="2">
-        <v>5926</v>
+        <v>15187</v>
       </c>
       <c r="E14" s="2">
-        <v>5296</v>
+        <v>13410</v>
       </c>
       <c r="F14" s="2">
-        <v>5325</v>
+        <v>13713</v>
       </c>
       <c r="G14" s="2">
-        <v>5570</v>
+        <v>14337</v>
       </c>
       <c r="H14" s="2">
-        <v>5562</v>
+        <v>14450</v>
       </c>
       <c r="I14" s="2">
-        <v>5471</v>
+        <v>14762</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>587</v>
+        <v>5793</v>
       </c>
       <c r="D15" s="2">
-        <v>667</v>
+        <v>5926</v>
       </c>
       <c r="E15" s="2">
-        <v>742</v>
+        <v>5296</v>
       </c>
       <c r="F15" s="2">
-        <v>588</v>
+        <v>5325</v>
       </c>
       <c r="G15" s="2">
-        <v>685</v>
+        <v>5570</v>
       </c>
       <c r="H15" s="2">
-        <v>1222</v>
+        <v>5562</v>
       </c>
       <c r="I15" s="2">
-        <v>945</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>7313</v>
+        <v>587</v>
       </c>
       <c r="D16" s="2">
-        <v>7627</v>
+        <v>667</v>
       </c>
       <c r="E16" s="2">
-        <v>7486</v>
+        <v>742</v>
       </c>
       <c r="F16" s="2">
-        <v>7471</v>
+        <v>588</v>
       </c>
       <c r="G16" s="2">
-        <v>7719</v>
+        <v>685</v>
       </c>
       <c r="H16" s="2">
-        <v>8058</v>
+        <v>1222</v>
       </c>
       <c r="I16" s="2">
-        <v>7925</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>4634</v>
+        <v>7313</v>
       </c>
       <c r="D17" s="2">
-        <v>4496</v>
+        <v>7627</v>
       </c>
       <c r="E17" s="2">
-        <v>4139</v>
+        <v>7486</v>
       </c>
       <c r="F17" s="2">
-        <v>3734</v>
+        <v>7471</v>
       </c>
       <c r="G17" s="2">
-        <v>3560</v>
+        <v>7719</v>
       </c>
       <c r="H17" s="2">
-        <v>3613</v>
+        <v>8058</v>
       </c>
       <c r="I17" s="2">
-        <v>3222</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>17707</v>
+        <v>4634</v>
       </c>
       <c r="D18" s="2">
-        <v>18277</v>
+        <v>4496</v>
       </c>
       <c r="E18" s="2">
-        <v>15546</v>
+        <v>4139</v>
       </c>
       <c r="F18" s="2">
-        <v>15563</v>
+        <v>3734</v>
       </c>
       <c r="G18" s="2">
-        <v>16058</v>
+        <v>3560</v>
       </c>
       <c r="H18" s="2">
-        <v>17756</v>
+        <v>3613</v>
       </c>
       <c r="I18" s="2">
-        <v>17497</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2">
+        <v>17707</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18277</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15546</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15563</v>
+      </c>
+      <c r="G19" s="2">
+        <v>16058</v>
+      </c>
+      <c r="H19" s="2">
+        <v>17756</v>
+      </c>
+      <c r="I19" s="2">
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
         <f>417+347+1603</f>
         <v>2367</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <f>479+251+3372</f>
         <v>4102</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <f>437+382+6869</f>
         <v>7688</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <f>392+86+8688</f>
         <v>9166</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <f>366+760+9412</f>
         <v>10538</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <f>322+489+10134</f>
         <v>10945</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I20" s="2">
         <f>224+421+9513</f>
         <v>10158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5690</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6584</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5607</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5730</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5750</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6484</v>
-      </c>
-      <c r="I20" s="2">
-        <v>6329</v>
-      </c>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>227</v>
+        <v>5690</v>
       </c>
       <c r="D21" s="2">
-        <v>1351</v>
+        <v>6584</v>
       </c>
       <c r="E21" s="2">
-        <v>2872</v>
+        <v>5607</v>
       </c>
       <c r="F21" s="2">
-        <v>1376</v>
+        <v>5730</v>
       </c>
       <c r="G21" s="2">
-        <v>2445</v>
+        <v>5750</v>
       </c>
       <c r="H21" s="2">
-        <v>1803</v>
+        <v>6484</v>
       </c>
       <c r="I21" s="2">
-        <v>1730</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>3366</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2">
-        <v>3958</v>
+        <v>1351</v>
       </c>
       <c r="E22" s="2">
-        <v>3586</v>
+        <v>2872</v>
       </c>
       <c r="F22" s="2">
-        <v>3516</v>
+        <v>1376</v>
       </c>
       <c r="G22" s="2">
-        <v>3597</v>
+        <v>2445</v>
       </c>
       <c r="H22" s="2">
-        <v>3542</v>
+        <v>1803</v>
       </c>
       <c r="I22" s="2">
-        <v>2717</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>7048</v>
+        <v>3366</v>
       </c>
       <c r="D23" s="2">
-        <v>6968</v>
+        <v>3958</v>
       </c>
       <c r="E23" s="2">
-        <v>6859</v>
+        <v>3586</v>
       </c>
       <c r="F23" s="2">
-        <v>7476</v>
+        <v>3516</v>
       </c>
       <c r="G23" s="2">
-        <v>7405</v>
+        <v>3597</v>
       </c>
       <c r="H23" s="2">
-        <v>7679</v>
+        <v>3542</v>
       </c>
       <c r="I23" s="2">
-        <v>9162</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2">
-        <v>12182</v>
+        <v>7048</v>
       </c>
       <c r="D24" s="2">
-        <v>12573</v>
+        <v>6968</v>
       </c>
       <c r="E24" s="2">
-        <v>9756</v>
+        <v>6859</v>
       </c>
       <c r="F24" s="2">
-        <v>11110</v>
+        <v>7476</v>
       </c>
       <c r="G24" s="2">
-        <v>16342</v>
+        <v>7405</v>
       </c>
       <c r="H24" s="2">
-        <v>14254</v>
+        <v>7679</v>
       </c>
       <c r="I24" s="2">
-        <v>15123</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2">
+        <v>12182</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12573</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9756</v>
+      </c>
+      <c r="F25" s="2">
+        <v>11110</v>
+      </c>
+      <c r="G25" s="2">
+        <v>16342</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14254</v>
+      </c>
+      <c r="I25" s="2">
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2">
         <f>486+473+1014+4110+3</f>
         <v>6086</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <f>2664+512+2260+5930+5</f>
         <v>11371</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <f>1713+344+2269+6402+7</f>
         <v>10735</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <f>1670+326+1996+6766+7</f>
         <v>10765</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <f>2113+242+1920+6975+7</f>
         <v>11257</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <f>2364+208+1800+7087+7</f>
         <v>11466</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <f>2093+146+1180+6469+7</f>
         <v>9895</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:H26" si="1">C4</f>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:H27" si="1">C4</f>
         <v>1030</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <f t="shared" si="1"/>
         <v>1115</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>1116</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>1002</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>1223</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <f>I4</f>
         <v>1204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2">
-        <v>184</v>
-      </c>
-      <c r="D27" s="2">
-        <v>176</v>
-      </c>
-      <c r="E27" s="2">
-        <v>175</v>
-      </c>
-      <c r="F27" s="2">
-        <v>153</v>
-      </c>
-      <c r="G27" s="2">
-        <v>168</v>
-      </c>
-      <c r="H27" s="2">
-        <v>217</v>
-      </c>
-      <c r="I27" s="2">
-        <v>188</v>
-      </c>
-    </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="2">
-        <f>5498-C27-C26</f>
-        <v>4284</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2">
-        <f>5966-D27-D26</f>
-        <v>4675</v>
+        <v>176</v>
       </c>
       <c r="E28" s="2">
-        <f>6434-E27-E26</f>
-        <v>5143</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2">
-        <f>6897-F27-F26</f>
-        <v>5656</v>
+        <v>153</v>
       </c>
       <c r="G28" s="2">
-        <f>6208-G27-G26</f>
-        <v>5038</v>
+        <v>168</v>
       </c>
       <c r="H28" s="2">
-        <f>6038-H27-H26</f>
-        <v>4598</v>
+        <v>217</v>
       </c>
       <c r="I28" s="2">
-        <f>5274-I27-I26</f>
-        <v>3882</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="2">
-        <v>-1095</v>
+        <f>5498-C28-C27</f>
+        <v>4284</v>
       </c>
       <c r="D29" s="2">
-        <v>-1031</v>
+        <f>5966-D28-D27</f>
+        <v>4675</v>
       </c>
       <c r="E29" s="2">
-        <v>-828</v>
+        <f>6434-E28-E27</f>
+        <v>5143</v>
       </c>
       <c r="F29" s="2">
-        <v>-839</v>
+        <f>6897-F28-F27</f>
+        <v>5656</v>
       </c>
       <c r="G29" s="2">
-        <v>-906</v>
+        <f>6208-G28-G27</f>
+        <v>5038</v>
       </c>
       <c r="H29" s="2">
-        <v>-895</v>
+        <f>6038-H28-H27</f>
+        <v>4598</v>
       </c>
       <c r="I29" s="2">
-        <v>-766</v>
+        <f>5274-I28-I27</f>
+        <v>3882</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="2">
+        <v>-1095</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1031</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-828</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-839</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-906</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-895</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2">
         <f>-2573+296</f>
         <v>-2277</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>-82</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>-535</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>-50</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <f>0-149-261</f>
         <v>-410</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H31" s="2">
         <f>586+192-1326+203</f>
         <v>-345</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I31" s="2">
         <f>409+369-178</f>
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="2">
-        <f>-3342-C30-C29</f>
-        <v>30</v>
-      </c>
-      <c r="D31" s="2">
-        <f>-3574-D30-D29</f>
-        <v>-2461</v>
-      </c>
-      <c r="E31" s="2">
-        <f>1027-E30-E29</f>
-        <v>2390</v>
-      </c>
-      <c r="F31" s="2">
-        <f>-533-F30-F29</f>
-        <v>356</v>
-      </c>
-      <c r="G31" s="2">
-        <f>-987-G30-G29</f>
-        <v>329</v>
-      </c>
-      <c r="H31" s="2">
-        <f>-1061-H30-H29</f>
-        <v>179</v>
-      </c>
-      <c r="I31" s="2">
-        <f>-93-I30-I29</f>
-        <v>73</v>
-      </c>
-    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="2">
+        <f>-3342-C31-C30</f>
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <f>-3574-D31-D30</f>
+        <v>-2461</v>
+      </c>
+      <c r="E32" s="2">
+        <f>1027-E31-E30</f>
+        <v>2390</v>
+      </c>
+      <c r="F32" s="2">
+        <f>-533-F31-F30</f>
+        <v>356</v>
+      </c>
+      <c r="G32" s="2">
+        <f>-987-G31-G30</f>
+        <v>329</v>
+      </c>
+      <c r="H32" s="2">
+        <f>-1061-H31-H30</f>
+        <v>179</v>
+      </c>
+      <c r="I32" s="2">
+        <f>-93-I31-I30</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2">
         <v>-2464</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <f>13701-13532</f>
         <v>169</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <f>23891-24095</f>
         <v>-204</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <f>10474-10400</f>
         <v>74</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <f>5194-5190</f>
         <v>4</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I33" s="2">
         <f>7661-8447</f>
         <v>-786</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <f>9245-2839</f>
         <v>6406</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <f>1238-292</f>
         <v>946</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <f>27-1330</f>
         <v>-1303</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <f>2726-2903</f>
         <v>-177</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <f>10125-4308</f>
         <v>5817</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <f>2517-4917</f>
         <v>-2400</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I34" s="2">
         <f>2953-1850</f>
         <v>1103</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="2">
-        <v>409</v>
-      </c>
-      <c r="D34" s="2">
-        <v>520</v>
-      </c>
-      <c r="E34" s="2">
-        <v>267</v>
-      </c>
-      <c r="F34" s="2">
-        <v>498</v>
-      </c>
-      <c r="G34" s="2">
-        <v>393</v>
-      </c>
-      <c r="H34" s="2">
-        <v>229</v>
-      </c>
-      <c r="I34" s="2">
-        <v>320</v>
-      </c>
-    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="2">
-        <v>-2079</v>
+        <v>409</v>
       </c>
       <c r="D35" s="2">
-        <v>-2889</v>
+        <v>520</v>
       </c>
       <c r="E35" s="2">
-        <v>-4000</v>
+        <v>267</v>
       </c>
       <c r="F35" s="2">
-        <v>-4400</v>
+        <v>498</v>
       </c>
       <c r="G35" s="2">
-        <v>-3714</v>
+        <v>393</v>
       </c>
       <c r="H35" s="2">
-        <v>-3380</v>
+        <v>229</v>
       </c>
       <c r="I35" s="2">
-        <v>-4200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="2">
-        <v>-1915</v>
+        <v>-2079</v>
       </c>
       <c r="D36" s="2">
-        <v>-2119</v>
+        <v>-2889</v>
       </c>
       <c r="E36" s="2">
-        <v>-2272</v>
+        <v>-4000</v>
       </c>
       <c r="F36" s="2">
-        <v>-2442</v>
+        <v>-4400</v>
       </c>
       <c r="G36" s="2">
-        <v>-2592</v>
+        <v>-3714</v>
       </c>
       <c r="H36" s="2">
-        <v>-2626</v>
+        <v>-3380</v>
       </c>
       <c r="I36" s="2">
-        <v>-2719</v>
+        <v>-4200</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="2">
-        <f>346-SUM(C32:C36)</f>
+        <v>-1915</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-2119</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-2272</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-2442</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-2592</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-2626</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-2719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2">
+        <f>346-SUM(C33:C37)</f>
         <v>-11</v>
       </c>
-      <c r="D37" s="2">
-        <f>-3516-SUM(D32:D36)</f>
+      <c r="D38" s="2">
+        <f>-3516-SUM(D33:D37)</f>
         <v>-143</v>
       </c>
-      <c r="E37" s="2">
-        <f>-5032-SUM(E32:E36)</f>
+      <c r="E38" s="2">
+        <f>-5032-SUM(E33:E37)</f>
         <v>2480</v>
       </c>
-      <c r="F37" s="2">
-        <f>-6600-SUM(F32:F36)</f>
+      <c r="F38" s="2">
+        <f>-6600-SUM(F33:F37)</f>
         <v>-79</v>
       </c>
-      <c r="G37" s="2">
-        <f>-81-SUM(G32:G36)</f>
+      <c r="G38" s="2">
+        <f>-81-SUM(G33:G37)</f>
         <v>-59</v>
       </c>
-      <c r="H37" s="2">
-        <f>-8254-SUM(H32:H36)</f>
+      <c r="H38" s="2">
+        <f>-8254-SUM(H33:H37)</f>
         <v>-81</v>
       </c>
-      <c r="I37" s="2">
-        <f>-6330-SUM(I32:I36)</f>
+      <c r="I38" s="2">
+        <f>-6330-SUM(I33:I37)</f>
         <v>-48</v>
       </c>
     </row>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807CF76-5993-4FD1-96BE-032DA6654762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D3279-EB03-4875-9E33-67BFA5E338F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
@@ -2114,7 +2114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E819163-5521-45FA-A78B-EE35A9ED9228}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D3279-EB03-4875-9E33-67BFA5E338F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA721AD-F1CF-4009-A1B8-1544ACDF42B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2115,7 +2117,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2216,7 +2218,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>43</v>
@@ -2385,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44494D2-9DE2-4D59-A026-6ED0B2327BD6}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA721AD-F1CF-4009-A1B8-1544ACDF42B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE52FAF-FBD4-42B3-A2AA-A539E2D40EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
   <si>
     <t>Revenue</t>
   </si>
@@ -285,9 +285,6 @@
     <t>DPS Growth</t>
   </si>
   <si>
-    <t>% Market Cap</t>
-  </si>
-  <si>
     <t>Asset Life</t>
   </si>
   <si>
@@ -355,6 +352,12 @@
   </si>
   <si>
     <t>OthInc</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -438,6 +441,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -782,10 +786,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +964,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1044,929 +1051,958 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>7843</v>
+        <f>4809/6.2</f>
+        <v>775.64516129032256</v>
       </c>
       <c r="D9" s="2">
-        <v>7059</v>
+        <f>1545/2</f>
+        <v>772.5</v>
       </c>
       <c r="E9" s="2">
-        <v>9287</v>
+        <f>6765/8.98</f>
+        <v>753.34075723830733</v>
       </c>
       <c r="F9" s="2">
-        <v>9067</v>
+        <f>6143/8.41</f>
+        <v>730.43995243757433</v>
       </c>
       <c r="G9" s="2">
-        <v>14275</v>
+        <f>4779/6.72</f>
+        <v>711.16071428571433</v>
       </c>
       <c r="H9" s="2">
-        <v>10959</v>
+        <f>5542/7.91</f>
+        <v>700.63211125158023</v>
       </c>
       <c r="I9" s="2">
-        <v>9627</v>
+        <f>4966/7.27</f>
+        <v>683.08115543328756</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>1520</v>
+        <v>7843</v>
       </c>
       <c r="D10" s="2">
-        <v>3758</v>
+        <v>7059</v>
       </c>
       <c r="E10" s="2">
-        <v>1623</v>
+        <v>9287</v>
       </c>
       <c r="F10" s="2">
-        <v>1349</v>
+        <v>9067</v>
       </c>
       <c r="G10" s="2">
-        <v>945</v>
+        <v>14275</v>
       </c>
       <c r="H10" s="2">
-        <v>564</v>
+        <v>10959</v>
       </c>
       <c r="I10" s="2">
-        <v>483</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>8177</v>
+        <v>1520</v>
       </c>
       <c r="D11" s="2">
-        <v>8866</v>
+        <v>3758</v>
       </c>
       <c r="E11" s="2">
-        <v>7508</v>
+        <v>1623</v>
       </c>
       <c r="F11" s="2">
-        <v>7493</v>
+        <v>1349</v>
       </c>
       <c r="G11" s="2">
-        <v>6827</v>
+        <v>945</v>
       </c>
       <c r="H11" s="2">
-        <v>6830</v>
+        <v>564</v>
       </c>
       <c r="I11" s="2">
-        <v>7440</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>4366</v>
+        <v>8177</v>
       </c>
       <c r="D12" s="2">
-        <v>4613</v>
+        <v>8866</v>
       </c>
       <c r="E12" s="2">
-        <v>4326</v>
+        <v>7508</v>
       </c>
       <c r="F12" s="2">
-        <v>4421</v>
+        <v>7493</v>
       </c>
       <c r="G12" s="2">
-        <v>4489</v>
+        <v>6827</v>
       </c>
       <c r="H12" s="2">
-        <v>5138</v>
+        <v>6830</v>
       </c>
       <c r="I12" s="2">
-        <v>5538</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>1152</v>
+        <v>4366</v>
       </c>
       <c r="D13" s="2">
-        <v>1706</v>
+        <v>4613</v>
       </c>
       <c r="E13" s="2">
-        <v>1618</v>
+        <v>4326</v>
       </c>
       <c r="F13" s="2">
-        <v>1973</v>
+        <v>4421</v>
       </c>
       <c r="G13" s="2">
-        <v>1639</v>
+        <v>4489</v>
       </c>
       <c r="H13" s="2">
-        <v>1881</v>
+        <v>5138</v>
       </c>
       <c r="I13" s="2">
-        <v>1894</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2">
-        <v>14507</v>
+        <v>1152</v>
       </c>
       <c r="D14" s="2">
-        <v>15187</v>
+        <v>1706</v>
       </c>
       <c r="E14" s="2">
-        <v>13410</v>
+        <v>1618</v>
       </c>
       <c r="F14" s="2">
-        <v>13713</v>
+        <v>1973</v>
       </c>
       <c r="G14" s="2">
-        <v>14337</v>
+        <v>1639</v>
       </c>
       <c r="H14" s="2">
-        <v>14450</v>
+        <v>1881</v>
       </c>
       <c r="I14" s="2">
-        <v>14762</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>5793</v>
+        <v>14507</v>
       </c>
       <c r="D15" s="2">
-        <v>5926</v>
+        <v>15187</v>
       </c>
       <c r="E15" s="2">
-        <v>5296</v>
+        <v>13410</v>
       </c>
       <c r="F15" s="2">
-        <v>5325</v>
+        <v>13713</v>
       </c>
       <c r="G15" s="2">
-        <v>5570</v>
+        <v>14337</v>
       </c>
       <c r="H15" s="2">
-        <v>5562</v>
+        <v>14450</v>
       </c>
       <c r="I15" s="2">
-        <v>5471</v>
+        <v>14762</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>587</v>
+        <v>5793</v>
       </c>
       <c r="D16" s="2">
-        <v>667</v>
+        <v>5926</v>
       </c>
       <c r="E16" s="2">
-        <v>742</v>
+        <v>5296</v>
       </c>
       <c r="F16" s="2">
-        <v>588</v>
+        <v>5325</v>
       </c>
       <c r="G16" s="2">
-        <v>685</v>
+        <v>5570</v>
       </c>
       <c r="H16" s="2">
-        <v>1222</v>
+        <v>5562</v>
       </c>
       <c r="I16" s="2">
-        <v>945</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>7313</v>
+        <v>587</v>
       </c>
       <c r="D17" s="2">
-        <v>7627</v>
+        <v>667</v>
       </c>
       <c r="E17" s="2">
-        <v>7486</v>
+        <v>742</v>
       </c>
       <c r="F17" s="2">
-        <v>7471</v>
+        <v>588</v>
       </c>
       <c r="G17" s="2">
-        <v>7719</v>
+        <v>685</v>
       </c>
       <c r="H17" s="2">
-        <v>8058</v>
+        <v>1222</v>
       </c>
       <c r="I17" s="2">
-        <v>7925</v>
+        <v>945</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>4634</v>
+        <v>7313</v>
       </c>
       <c r="D18" s="2">
-        <v>4496</v>
+        <v>7627</v>
       </c>
       <c r="E18" s="2">
-        <v>4139</v>
+        <v>7486</v>
       </c>
       <c r="F18" s="2">
-        <v>3734</v>
+        <v>7471</v>
       </c>
       <c r="G18" s="2">
-        <v>3560</v>
+        <v>7719</v>
       </c>
       <c r="H18" s="2">
-        <v>3613</v>
+        <v>8058</v>
       </c>
       <c r="I18" s="2">
-        <v>3222</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>17707</v>
+        <v>4634</v>
       </c>
       <c r="D19" s="2">
-        <v>18277</v>
+        <v>4496</v>
       </c>
       <c r="E19" s="2">
-        <v>15546</v>
+        <v>4139</v>
       </c>
       <c r="F19" s="2">
-        <v>15563</v>
+        <v>3734</v>
       </c>
       <c r="G19" s="2">
-        <v>16058</v>
+        <v>3560</v>
       </c>
       <c r="H19" s="2">
-        <v>17756</v>
+        <v>3613</v>
       </c>
       <c r="I19" s="2">
-        <v>17497</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2">
+        <v>17707</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18277</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15546</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15563</v>
+      </c>
+      <c r="G20" s="2">
+        <v>16058</v>
+      </c>
+      <c r="H20" s="2">
+        <v>17756</v>
+      </c>
+      <c r="I20" s="2">
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
         <f>417+347+1603</f>
         <v>2367</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <f>479+251+3372</f>
         <v>4102</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <f>437+382+6869</f>
         <v>7688</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <f>392+86+8688</f>
         <v>9166</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <f>366+760+9412</f>
         <v>10538</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <f>322+489+10134</f>
         <v>10945</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="2">
         <f>224+421+9513</f>
         <v>10158</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5690</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6584</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5607</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5730</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5750</v>
-      </c>
-      <c r="H21" s="2">
-        <v>6484</v>
-      </c>
-      <c r="I21" s="2">
-        <v>6329</v>
-      </c>
-    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>227</v>
+        <v>5690</v>
       </c>
       <c r="D22" s="2">
-        <v>1351</v>
+        <v>6584</v>
       </c>
       <c r="E22" s="2">
-        <v>2872</v>
+        <v>5607</v>
       </c>
       <c r="F22" s="2">
-        <v>1376</v>
+        <v>5730</v>
       </c>
       <c r="G22" s="2">
-        <v>2445</v>
+        <v>5750</v>
       </c>
       <c r="H22" s="2">
-        <v>1803</v>
+        <v>6484</v>
       </c>
       <c r="I22" s="2">
-        <v>1730</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>3366</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2">
-        <v>3958</v>
+        <v>1351</v>
       </c>
       <c r="E23" s="2">
-        <v>3586</v>
+        <v>2872</v>
       </c>
       <c r="F23" s="2">
-        <v>3516</v>
+        <v>1376</v>
       </c>
       <c r="G23" s="2">
-        <v>3597</v>
+        <v>2445</v>
       </c>
       <c r="H23" s="2">
-        <v>3542</v>
+        <v>1803</v>
       </c>
       <c r="I23" s="2">
-        <v>2717</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2">
-        <v>7048</v>
+        <v>3366</v>
       </c>
       <c r="D24" s="2">
-        <v>6968</v>
+        <v>3958</v>
       </c>
       <c r="E24" s="2">
-        <v>6859</v>
+        <v>3586</v>
       </c>
       <c r="F24" s="2">
-        <v>7476</v>
+        <v>3516</v>
       </c>
       <c r="G24" s="2">
-        <v>7405</v>
+        <v>3597</v>
       </c>
       <c r="H24" s="2">
-        <v>7679</v>
+        <v>3542</v>
       </c>
       <c r="I24" s="2">
-        <v>9162</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2">
-        <v>12182</v>
+        <v>7048</v>
       </c>
       <c r="D25" s="2">
-        <v>12573</v>
+        <v>6968</v>
       </c>
       <c r="E25" s="2">
-        <v>9756</v>
+        <v>6859</v>
       </c>
       <c r="F25" s="2">
-        <v>11110</v>
+        <v>7476</v>
       </c>
       <c r="G25" s="2">
-        <v>16342</v>
+        <v>7405</v>
       </c>
       <c r="H25" s="2">
-        <v>14254</v>
+        <v>7679</v>
       </c>
       <c r="I25" s="2">
-        <v>15123</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2">
+        <v>12182</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12573</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9756</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11110</v>
+      </c>
+      <c r="G26" s="2">
+        <v>16342</v>
+      </c>
+      <c r="H26" s="2">
+        <v>14254</v>
+      </c>
+      <c r="I26" s="2">
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
         <f>486+473+1014+4110+3</f>
         <v>6086</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <f>2664+512+2260+5930+5</f>
         <v>11371</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <f>1713+344+2269+6402+7</f>
         <v>10735</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <f>1670+326+1996+6766+7</f>
         <v>10765</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <f>2113+242+1920+6975+7</f>
         <v>11257</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <f>2364+208+1800+7087+7</f>
         <v>11466</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <f>2093+146+1180+6469+7</f>
         <v>9895</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="C27:H27" si="1">C4</f>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:H28" si="1">C4</f>
         <v>1030</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <f t="shared" si="1"/>
         <v>1115</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>1116</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>1002</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>1223</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I28" s="2">
         <f>I4</f>
         <v>1204</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="2">
-        <v>184</v>
-      </c>
-      <c r="D28" s="2">
-        <v>176</v>
-      </c>
-      <c r="E28" s="2">
-        <v>175</v>
-      </c>
-      <c r="F28" s="2">
-        <v>153</v>
-      </c>
-      <c r="G28" s="2">
-        <v>168</v>
-      </c>
-      <c r="H28" s="2">
-        <v>217</v>
-      </c>
-      <c r="I28" s="2">
-        <v>188</v>
-      </c>
-    </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
-        <f>5498-C28-C27</f>
-        <v>4284</v>
+        <v>184</v>
       </c>
       <c r="D29" s="2">
-        <f>5966-D28-D27</f>
-        <v>4675</v>
+        <v>176</v>
       </c>
       <c r="E29" s="2">
-        <f>6434-E28-E27</f>
-        <v>5143</v>
+        <v>175</v>
       </c>
       <c r="F29" s="2">
-        <f>6897-F28-F27</f>
-        <v>5656</v>
+        <v>153</v>
       </c>
       <c r="G29" s="2">
-        <f>6208-G28-G27</f>
-        <v>5038</v>
+        <v>168</v>
       </c>
       <c r="H29" s="2">
-        <f>6038-H28-H27</f>
-        <v>4598</v>
+        <v>217</v>
       </c>
       <c r="I29" s="2">
-        <f>5274-I28-I27</f>
-        <v>3882</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2">
-        <v>-1095</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2">
-        <v>-1031</v>
+        <v>3087</v>
       </c>
       <c r="E30" s="2">
-        <v>-828</v>
+        <v>-1685</v>
       </c>
       <c r="F30" s="2">
-        <v>-839</v>
+        <v>-574</v>
       </c>
       <c r="G30" s="2">
-        <v>-906</v>
+        <v>173</v>
       </c>
       <c r="H30" s="2">
-        <v>-895</v>
+        <v>-1012</v>
       </c>
       <c r="I30" s="2">
-        <v>-766</v>
+        <v>-1085</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2">
+        <v>-1095</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1031</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-828</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-839</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-906</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-895</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="2">
         <f>-2573+296</f>
         <v>-2277</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="2">
         <v>-82</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>-535</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>-50</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <f>0-149-261</f>
         <v>-410</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <f>586+192-1326+203</f>
         <v>-345</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I32" s="2">
         <f>409+369-178</f>
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2">
-        <f>-3342-C31-C30</f>
-        <v>30</v>
-      </c>
-      <c r="D32" s="2">
-        <f>-3574-D31-D30</f>
-        <v>-2461</v>
-      </c>
-      <c r="E32" s="2">
-        <f>1027-E31-E30</f>
-        <v>2390</v>
-      </c>
-      <c r="F32" s="2">
-        <f>-533-F31-F30</f>
-        <v>356</v>
-      </c>
-      <c r="G32" s="2">
-        <f>-987-G31-G30</f>
-        <v>329</v>
-      </c>
-      <c r="H32" s="2">
-        <f>-1061-H31-H30</f>
-        <v>179</v>
-      </c>
-      <c r="I32" s="2">
-        <f>-93-I31-I30</f>
-        <v>73</v>
-      </c>
-    </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2">
+        <f>-3342-C32-C31</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="2">
+        <f>-3574-D32-D31</f>
+        <v>-2461</v>
+      </c>
+      <c r="E33" s="2">
+        <f>1027-E32-E31</f>
+        <v>2390</v>
+      </c>
+      <c r="F33" s="2">
+        <f>-533-F32-F31</f>
+        <v>356</v>
+      </c>
+      <c r="G33" s="2">
+        <f>-987-G32-G31</f>
+        <v>329</v>
+      </c>
+      <c r="H33" s="2">
+        <f>-1061-H32-H31</f>
+        <v>179</v>
+      </c>
+      <c r="I33" s="2">
+        <f>-93-I32-I31</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2">
         <v>-2464</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <f>13701-13532</f>
         <v>169</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <f>23891-24095</f>
         <v>-204</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <f>10474-10400</f>
         <v>74</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <f>5194-5190</f>
         <v>4</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I34" s="2">
         <f>7661-8447</f>
         <v>-786</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2">
         <f>9245-2839</f>
         <v>6406</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <f>1238-292</f>
         <v>946</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <f>27-1330</f>
         <v>-1303</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <f>2726-2903</f>
         <v>-177</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <f>10125-4308</f>
         <v>5817</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <f>2517-4917</f>
         <v>-2400</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="2">
         <f>2953-1850</f>
         <v>1103</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="2">
-        <v>409</v>
-      </c>
-      <c r="D35" s="2">
-        <v>520</v>
-      </c>
-      <c r="E35" s="2">
-        <v>267</v>
-      </c>
-      <c r="F35" s="2">
-        <v>498</v>
-      </c>
-      <c r="G35" s="2">
-        <v>393</v>
-      </c>
-      <c r="H35" s="2">
-        <v>229</v>
-      </c>
-      <c r="I35" s="2">
-        <v>320</v>
-      </c>
-    </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2">
-        <v>-2079</v>
+        <v>409</v>
       </c>
       <c r="D36" s="2">
-        <v>-2889</v>
+        <v>520</v>
       </c>
       <c r="E36" s="2">
-        <v>-4000</v>
+        <v>267</v>
       </c>
       <c r="F36" s="2">
-        <v>-4400</v>
+        <v>498</v>
       </c>
       <c r="G36" s="2">
-        <v>-3714</v>
+        <v>393</v>
       </c>
       <c r="H36" s="2">
-        <v>-3380</v>
+        <v>229</v>
       </c>
       <c r="I36" s="2">
-        <v>-4200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2">
-        <v>-1915</v>
+        <v>-2079</v>
       </c>
       <c r="D37" s="2">
-        <v>-2119</v>
+        <v>-2889</v>
       </c>
       <c r="E37" s="2">
-        <v>-2272</v>
+        <v>-4000</v>
       </c>
       <c r="F37" s="2">
-        <v>-2442</v>
+        <v>-4400</v>
       </c>
       <c r="G37" s="2">
-        <v>-2592</v>
+        <v>-3714</v>
       </c>
       <c r="H37" s="2">
-        <v>-2626</v>
+        <v>-3380</v>
       </c>
       <c r="I37" s="2">
-        <v>-2719</v>
+        <v>-4200</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2">
-        <f>346-SUM(C33:C37)</f>
+        <v>-1915</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-2119</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-2272</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-2442</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-2592</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-2626</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-2719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2">
+        <f>346-SUM(C34:C38)</f>
         <v>-11</v>
       </c>
-      <c r="D38" s="2">
-        <f>-3516-SUM(D33:D37)</f>
+      <c r="D39" s="2">
+        <f>-3516-SUM(D34:D38)</f>
         <v>-143</v>
       </c>
-      <c r="E38" s="2">
-        <f>-5032-SUM(E33:E37)</f>
+      <c r="E39" s="2">
+        <f>-5032-SUM(E34:E38)</f>
         <v>2480</v>
       </c>
-      <c r="F38" s="2">
-        <f>-6600-SUM(F33:F37)</f>
+      <c r="F39" s="2">
+        <f>-6600-SUM(F34:F38)</f>
         <v>-79</v>
       </c>
-      <c r="G38" s="2">
-        <f>-81-SUM(G33:G37)</f>
+      <c r="G39" s="2">
+        <f>-81-SUM(G34:G38)</f>
         <v>-59</v>
       </c>
-      <c r="H38" s="2">
-        <f>-8254-SUM(H33:H37)</f>
+      <c r="H39" s="2">
+        <f>-8254-SUM(H34:H38)</f>
         <v>-81</v>
       </c>
-      <c r="I38" s="2">
-        <f>-6330-SUM(I33:I37)</f>
+      <c r="I39" s="2">
+        <f>-6330-SUM(I34:I38)</f>
         <v>-48</v>
       </c>
     </row>
@@ -2038,7 +2074,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -2079,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -2116,9 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E819163-5521-45FA-A78B-EE35A9ED9228}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2387,9 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44494D2-9DE2-4D59-A026-6ED0B2327BD6}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2438,7 +2470,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -2484,10 +2516,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
@@ -2516,7 +2545,9 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F20" t="s">
         <v>74</v>
       </c>
@@ -2526,7 +2557,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -2537,7 +2568,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>77</v>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE52FAF-FBD4-42B3-A2AA-A539E2D40EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0732D1F-DCCE-4BEF-AEFA-281012D8D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -432,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -441,7 +441,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -788,11 +787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:A39"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2421,7 +2420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44494D2-9DE2-4D59-A026-6ED0B2327BD6}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2545,7 +2544,7 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>105</v>
       </c>
       <c r="F20" t="s">

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0732D1F-DCCE-4BEF-AEFA-281012D8D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56034450-AAB5-4A26-B106-988916E5D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -368,7 +368,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +394,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -441,6 +449,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -758,7 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -767,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -775,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -785,9 +797,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -800,9 +812,10 @@
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -811,157 +824,164 @@
       </c>
       <c r="C1">
         <f>Input!C2</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1">
         <f t="shared" ref="D1:I1" si="0">C1+1</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1">
         <f t="shared" si="0"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2">
-        <v>39302</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40534</v>
-      </c>
-      <c r="E2" s="2">
-        <v>41802</v>
-      </c>
-      <c r="F2" s="2">
-        <v>36709</v>
-      </c>
-      <c r="G2" s="2">
-        <v>32637</v>
-      </c>
-      <c r="H2" s="2">
-        <v>34392</v>
+      <c r="C2" s="6">
+        <v>16403</v>
+      </c>
+      <c r="D2" s="6">
+        <v>18628</v>
+      </c>
+      <c r="E2" s="6">
+        <v>14402</v>
+      </c>
+      <c r="F2" s="6">
+        <v>14198</v>
+      </c>
+      <c r="G2" s="6">
+        <v>22845</v>
+      </c>
+      <c r="H2" s="6">
+        <v>22780</v>
       </c>
       <c r="I2" s="2">
         <v>35466</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
-        <v>27677</v>
-      </c>
-      <c r="D3" s="2">
-        <v>28144</v>
-      </c>
-      <c r="E3" s="2">
-        <v>29046</v>
-      </c>
-      <c r="F3" s="2">
-        <v>24339</v>
-      </c>
-      <c r="G3" s="2">
-        <v>22169</v>
-      </c>
-      <c r="H3" s="2">
-        <v>23394</v>
+      <c r="C3" s="6">
+        <f>11980-C4</f>
+        <v>10266</v>
+      </c>
+      <c r="D3" s="6">
+        <f>13445-D4</f>
+        <v>11691</v>
+      </c>
+      <c r="E3" s="6">
+        <f>13105-E4</f>
+        <v>11693</v>
+      </c>
+      <c r="F3" s="6">
+        <f>11655-F4</f>
+        <v>10127</v>
+      </c>
+      <c r="G3" s="6">
+        <f>14030-G4</f>
+        <v>12032</v>
+      </c>
+      <c r="H3" s="6">
+        <f>15089-H4</f>
+        <v>13070</v>
       </c>
       <c r="I3" s="2">
         <v>23825</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
-        <f>726+304</f>
-        <v>1030</v>
-      </c>
-      <c r="D4" s="2">
-        <f>717+398</f>
-        <v>1115</v>
-      </c>
-      <c r="E4" s="2">
-        <f>721+395</f>
-        <v>1116</v>
-      </c>
-      <c r="F4" s="2">
-        <f>673+415</f>
-        <v>1088</v>
-      </c>
-      <c r="G4" s="2">
-        <f>644+358</f>
-        <v>1002</v>
-      </c>
-      <c r="H4" s="2">
-        <f>674+549</f>
-        <v>1223</v>
+      <c r="C4" s="6">
+        <v>1714</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1754</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1412</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1528</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2019</v>
       </c>
       <c r="I4" s="2">
         <f>657+547</f>
         <v>1204</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>5574</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6087</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6051</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5519</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4772</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4798</v>
+      <c r="C5" s="6">
+        <f>477+93+244-81</f>
+        <v>733</v>
+      </c>
+      <c r="D5" s="6">
+        <f>443+105+89-208</f>
+        <v>429</v>
+      </c>
+      <c r="E5" s="6">
+        <f>414+104+105-417</f>
+        <v>206</v>
+      </c>
+      <c r="F5" s="6">
+        <f>370+50+159-473</f>
+        <v>106</v>
+      </c>
+      <c r="G5" s="6">
+        <f>383+55+91-80</f>
+        <v>449</v>
+      </c>
+      <c r="H5" s="6">
+        <f>420+115+121-2</f>
+        <v>654</v>
       </c>
       <c r="I5" s="2">
         <v>5214</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -990,101 +1010,95 @@
         <v>-366</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
-        <v>338</v>
-      </c>
-      <c r="D7" s="2">
-        <v>316</v>
-      </c>
-      <c r="E7" s="2">
-        <v>367</v>
-      </c>
-      <c r="F7" s="2">
-        <v>357</v>
-      </c>
-      <c r="G7" s="2">
-        <v>359</v>
-      </c>
-      <c r="H7" s="2">
-        <v>343</v>
+      <c r="C7" s="6">
+        <v>801</v>
+      </c>
+      <c r="D7" s="6">
+        <v>945</v>
+      </c>
+      <c r="E7" s="6">
+        <v>620</v>
+      </c>
+      <c r="F7" s="6">
+        <v>598</v>
+      </c>
+      <c r="G7" s="6">
+        <v>602</v>
+      </c>
+      <c r="H7" s="6">
+        <v>560</v>
       </c>
       <c r="I7" s="2">
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
-        <v>1601</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5362</v>
-      </c>
-      <c r="E8" s="2">
-        <v>659</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1329</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1147</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1625</v>
+      <c r="C8" s="6">
+        <v>883</v>
+      </c>
+      <c r="D8" s="6">
+        <v>991</v>
+      </c>
+      <c r="E8" s="6">
+        <v>510</v>
+      </c>
+      <c r="F8" s="6">
+        <v>944</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2299</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2267</v>
       </c>
       <c r="I8" s="2">
         <v>1412</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <f>4809/6.2</f>
-        <v>775.64516129032256</v>
-      </c>
-      <c r="D9" s="2">
-        <f>1545/2</f>
-        <v>772.5</v>
-      </c>
-      <c r="E9" s="2">
-        <f>6765/8.98</f>
-        <v>753.34075723830733</v>
-      </c>
-      <c r="F9" s="2">
-        <f>6143/8.41</f>
-        <v>730.43995243757433</v>
-      </c>
-      <c r="G9" s="2">
-        <f>4779/6.72</f>
-        <v>711.16071428571433</v>
-      </c>
-      <c r="H9" s="2">
-        <f>5542/7.91</f>
-        <v>700.63211125158023</v>
+      <c r="C9" s="6">
+        <v>1454</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1458</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1451</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1461</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1482</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1451</v>
       </c>
       <c r="I9" s="2">
         <f>4966/7.27</f>
         <v>683.08115543328756</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1103,17 +1117,17 @@
       <c r="F10" s="2">
         <v>9067</v>
       </c>
-      <c r="G10" s="2">
-        <v>14275</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10959</v>
+      <c r="G10" s="6">
+        <v>8068</v>
+      </c>
+      <c r="H10" s="6">
+        <v>8146</v>
       </c>
       <c r="I10" s="2">
         <v>9627</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1132,17 +1146,17 @@
       <c r="F11" s="2">
         <v>1349</v>
       </c>
-      <c r="G11" s="2">
-        <v>945</v>
-      </c>
-      <c r="H11" s="2">
-        <v>564</v>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1161,17 +1175,17 @@
       <c r="F12" s="2">
         <v>7493</v>
       </c>
-      <c r="G12" s="2">
-        <v>6827</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6830</v>
+      <c r="G12" s="6">
+        <v>1168</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1336</v>
       </c>
       <c r="I12" s="2">
         <v>7440</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1190,17 +1204,19 @@
       <c r="F13" s="2">
         <v>4421</v>
       </c>
-      <c r="G13" s="2">
-        <v>4489</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5138</v>
+      <c r="G13" s="6">
+        <f>1669+1170+1658</f>
+        <v>4497</v>
+      </c>
+      <c r="H13" s="6">
+        <f>1964+1383+1833</f>
+        <v>5180</v>
       </c>
       <c r="I13" s="2">
         <v>5538</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1219,17 +1235,19 @@
       <c r="F14" s="2">
         <v>1973</v>
       </c>
-      <c r="G14" s="2">
-        <v>1639</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1881</v>
+      <c r="G14" s="6">
+        <f>523+574</f>
+        <v>1097</v>
+      </c>
+      <c r="H14" s="6">
+        <f>492+459</f>
+        <v>951</v>
       </c>
       <c r="I14" s="2">
         <v>1894</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -1248,17 +1266,17 @@
       <c r="F15" s="2">
         <v>13713</v>
       </c>
-      <c r="G15" s="2">
-        <v>14337</v>
-      </c>
-      <c r="H15" s="2">
-        <v>14450</v>
+      <c r="G15" s="6">
+        <v>77018</v>
+      </c>
+      <c r="H15" s="6">
+        <v>80900</v>
       </c>
       <c r="I15" s="2">
         <v>14762</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1277,11 +1295,11 @@
       <c r="F16" s="2">
         <v>5325</v>
       </c>
-      <c r="G16" s="2">
-        <v>5570</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5562</v>
+      <c r="G16" s="6">
+        <v>30345</v>
+      </c>
+      <c r="H16" s="6">
+        <v>32627</v>
       </c>
       <c r="I16" s="2">
         <v>5471</v>
@@ -1306,11 +1324,11 @@
       <c r="F17" s="2">
         <v>588</v>
       </c>
-      <c r="G17" s="2">
-        <v>685</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1222</v>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>945</v>
@@ -1335,11 +1353,11 @@
       <c r="F18" s="2">
         <v>7471</v>
       </c>
-      <c r="G18" s="2">
-        <v>7719</v>
-      </c>
-      <c r="H18" s="2">
-        <v>8058</v>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>7925</v>
@@ -1364,11 +1382,11 @@
       <c r="F19" s="2">
         <v>3734</v>
       </c>
-      <c r="G19" s="2">
-        <v>3560</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3613</v>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>3222</v>
@@ -1393,11 +1411,11 @@
       <c r="F20" s="2">
         <v>15563</v>
       </c>
-      <c r="G20" s="2">
-        <v>16058</v>
-      </c>
-      <c r="H20" s="2">
-        <v>17756</v>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <v>17497</v>
@@ -1426,13 +1444,13 @@
         <f>392+86+8688</f>
         <v>9166</v>
       </c>
-      <c r="G21" s="2">
-        <f>366+760+9412</f>
-        <v>10538</v>
-      </c>
-      <c r="H21" s="2">
-        <f>322+489+10134</f>
-        <v>10945</v>
+      <c r="G21" s="6">
+        <f>1387+1460</f>
+        <v>2847</v>
+      </c>
+      <c r="H21" s="6">
+        <f>1252+1601</f>
+        <v>2853</v>
       </c>
       <c r="I21" s="2">
         <f>224+421+9513</f>
@@ -1458,11 +1476,11 @@
       <c r="F22" s="2">
         <v>5730</v>
       </c>
-      <c r="G22" s="2">
-        <v>5750</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6484</v>
+      <c r="G22" s="6">
+        <v>3495</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4027</v>
       </c>
       <c r="I22" s="2">
         <v>6329</v>
@@ -1487,11 +1505,11 @@
       <c r="F23" s="2">
         <v>1376</v>
       </c>
-      <c r="G23" s="2">
-        <v>2445</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1803</v>
+      <c r="G23" s="6">
+        <v>372</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1037</v>
       </c>
       <c r="I23" s="2">
         <v>1730</v>
@@ -1516,11 +1534,11 @@
       <c r="F24" s="2">
         <v>3516</v>
       </c>
-      <c r="G24" s="2">
-        <v>3597</v>
-      </c>
-      <c r="H24" s="2">
-        <v>3542</v>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
       </c>
       <c r="I24" s="2">
         <v>2717</v>
@@ -1545,11 +1563,13 @@
       <c r="F25" s="2">
         <v>7476</v>
       </c>
-      <c r="G25" s="2">
-        <v>7405</v>
-      </c>
-      <c r="H25" s="2">
-        <v>7679</v>
+      <c r="G25" s="6">
+        <f>1541+264+220</f>
+        <v>2025</v>
+      </c>
+      <c r="H25" s="6">
+        <f>744+320+217</f>
+        <v>1281</v>
       </c>
       <c r="I25" s="2">
         <v>9162</v>
@@ -1574,11 +1594,11 @@
       <c r="F26" s="2">
         <v>11110</v>
       </c>
-      <c r="G26" s="2">
-        <v>16342</v>
-      </c>
-      <c r="H26" s="2">
-        <v>14254</v>
+      <c r="G26" s="6">
+        <v>9078</v>
+      </c>
+      <c r="H26" s="6">
+        <v>9583</v>
       </c>
       <c r="I26" s="2">
         <v>15123</v>
@@ -1607,13 +1627,13 @@
         <f>1670+326+1996+6766+7</f>
         <v>10765</v>
       </c>
-      <c r="G27" s="2">
-        <f>2113+242+1920+6975+7</f>
-        <v>11257</v>
-      </c>
-      <c r="H27" s="2">
-        <f>2364+208+1800+7087+7</f>
-        <v>11466</v>
+      <c r="G27" s="6">
+        <f>4116+4234+1683</f>
+        <v>10033</v>
+      </c>
+      <c r="H27" s="6">
+        <f>4463+4269+1562</f>
+        <v>10294</v>
       </c>
       <c r="I27" s="2">
         <f>2093+146+1180+6469+7</f>
@@ -1627,29 +1647,29 @@
       <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <f t="shared" ref="C28:H28" si="1">C4</f>
-        <v>1030</v>
-      </c>
-      <c r="D28" s="2">
+        <v>1714</v>
+      </c>
+      <c r="D28" s="6">
         <f t="shared" si="1"/>
-        <v>1115</v>
-      </c>
-      <c r="E28" s="2">
+        <v>1754</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>1116</v>
-      </c>
-      <c r="F28" s="2">
+        <v>1412</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
-        <v>1088</v>
-      </c>
-      <c r="G28" s="2">
+        <v>1528</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>1002</v>
-      </c>
-      <c r="H28" s="2">
+        <v>1998</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
-        <v>1223</v>
+        <v>2019</v>
       </c>
       <c r="I28" s="2">
         <f>I4</f>
@@ -1663,23 +1683,23 @@
       <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2">
-        <v>184</v>
-      </c>
-      <c r="D29" s="2">
-        <v>176</v>
-      </c>
-      <c r="E29" s="2">
-        <v>175</v>
-      </c>
-      <c r="F29" s="2">
-        <v>153</v>
-      </c>
-      <c r="G29" s="2">
-        <v>168</v>
-      </c>
-      <c r="H29" s="2">
-        <v>217</v>
+      <c r="C29" s="6">
+        <v>71</v>
+      </c>
+      <c r="D29" s="6">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6">
+        <v>63</v>
+      </c>
+      <c r="F29" s="6">
+        <v>99</v>
+      </c>
+      <c r="G29" s="6">
+        <v>98</v>
+      </c>
+      <c r="H29" s="6">
+        <v>95</v>
       </c>
       <c r="I29" s="2">
         <v>188</v>
@@ -1692,23 +1712,23 @@
       <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="2">
-        <v>70</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3087</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-1685</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-574</v>
-      </c>
-      <c r="G30" s="2">
-        <v>173</v>
-      </c>
-      <c r="H30" s="2">
-        <v>-1012</v>
+      <c r="C30" s="6">
+        <v>786</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-861</v>
+      </c>
+      <c r="E30" s="6">
+        <v>196</v>
+      </c>
+      <c r="F30" s="6">
+        <v>-525</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-723</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-1544</v>
       </c>
       <c r="I30" s="2">
         <v>-1085</v>
@@ -1721,23 +1741,29 @@
       <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="2">
-        <v>-1095</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-1031</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-828</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-839</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-906</v>
-      </c>
-      <c r="H31" s="2">
-        <v>-895</v>
+      <c r="C31" s="6">
+        <f>-167-115-875-5-248</f>
+        <v>-1410</v>
+      </c>
+      <c r="D31" s="6">
+        <f>-601-237-1001-9-123</f>
+        <v>-1971</v>
+      </c>
+      <c r="E31" s="6">
+        <f>-877-256-1369-19-131</f>
+        <v>-2652</v>
+      </c>
+      <c r="F31" s="6">
+        <f>-428-183-1161-105-19-65</f>
+        <v>-1961</v>
+      </c>
+      <c r="G31" s="6">
+        <f>-342-162-1296-222-6-87</f>
+        <v>-2115</v>
+      </c>
+      <c r="H31" s="6">
+        <f>-597-304-1575-806-33-154</f>
+        <v>-3469</v>
       </c>
       <c r="I31" s="2">
         <v>-766</v>
@@ -1750,26 +1776,26 @@
       <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="2">
-        <f>-2573+296</f>
-        <v>-2277</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-82</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-535</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-50</v>
-      </c>
-      <c r="G32" s="2">
-        <f>0-149-261</f>
-        <v>-410</v>
-      </c>
-      <c r="H32" s="2">
-        <f>586+192-1326+203</f>
-        <v>-345</v>
+      <c r="C32" s="6">
+        <v>72</v>
+      </c>
+      <c r="D32" s="6">
+        <f>-3500+457+93</f>
+        <v>-2950</v>
+      </c>
+      <c r="E32" s="6">
+        <f>452+109</f>
+        <v>561</v>
+      </c>
+      <c r="F32" s="6">
+        <v>704</v>
+      </c>
+      <c r="G32" s="6">
+        <f>247-33</f>
+        <v>214</v>
+      </c>
+      <c r="H32" s="6">
+        <v>108</v>
       </c>
       <c r="I32" s="2">
         <f>409+369-178</f>
@@ -1783,29 +1809,29 @@
       <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="2">
-        <f>-3342-C32-C31</f>
-        <v>30</v>
-      </c>
-      <c r="D33" s="2">
-        <f>-3574-D32-D31</f>
-        <v>-2461</v>
-      </c>
-      <c r="E33" s="2">
-        <f>1027-E32-E31</f>
-        <v>2390</v>
-      </c>
-      <c r="F33" s="2">
-        <f>-533-F32-F31</f>
-        <v>356</v>
-      </c>
-      <c r="G33" s="2">
-        <f>-987-G32-G31</f>
-        <v>329</v>
-      </c>
-      <c r="H33" s="2">
-        <f>-1061-H32-H31</f>
-        <v>179</v>
+      <c r="C33" s="6">
+        <f>-1321-C32-C31</f>
+        <v>17</v>
+      </c>
+      <c r="D33" s="6">
+        <f>-5018-D32-D31</f>
+        <v>-97</v>
+      </c>
+      <c r="E33" s="6">
+        <f>-2103-E32-E31</f>
+        <v>-12</v>
+      </c>
+      <c r="F33" s="6">
+        <f>-1264-F32-F31</f>
+        <v>-7</v>
+      </c>
+      <c r="G33" s="6">
+        <f>-1964-G32-G31</f>
+        <v>-63</v>
+      </c>
+      <c r="H33" s="6">
+        <f>-3440-H32-H31</f>
+        <v>-79</v>
       </c>
       <c r="I33" s="2">
         <f>-93-I32-I31</f>
@@ -1819,27 +1845,23 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="2">
-        <v>-2464</v>
-      </c>
-      <c r="D34" s="2">
-        <f>13701-13532</f>
-        <v>169</v>
-      </c>
-      <c r="E34" s="2">
-        <f>23891-24095</f>
-        <v>-204</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <f>10474-10400</f>
-        <v>74</v>
-      </c>
-      <c r="H34" s="2">
-        <f>5194-5190</f>
-        <v>4</v>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <f>7661-8447</f>
@@ -1853,29 +1875,29 @@
       <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="2">
-        <f>9245-2839</f>
-        <v>6406</v>
-      </c>
-      <c r="D35" s="2">
-        <f>1238-292</f>
-        <v>946</v>
-      </c>
-      <c r="E35" s="2">
-        <f>27-1330</f>
-        <v>-1303</v>
-      </c>
-      <c r="F35" s="2">
-        <f>2726-2903</f>
-        <v>-177</v>
-      </c>
-      <c r="G35" s="2">
-        <f>10125-4308</f>
-        <v>5817</v>
-      </c>
-      <c r="H35" s="2">
-        <f>2517-4917</f>
-        <v>-2400</v>
+      <c r="C35" s="6">
+        <f>955-3812</f>
+        <v>-2857</v>
+      </c>
+      <c r="D35" s="6">
+        <f>632-2717</f>
+        <v>-2085</v>
+      </c>
+      <c r="E35" s="6">
+        <f>1879-3197</f>
+        <v>-1318</v>
+      </c>
+      <c r="F35" s="6">
+        <f>3531-3724</f>
+        <v>-193</v>
+      </c>
+      <c r="G35" s="6">
+        <f>1201-1461</f>
+        <v>-260</v>
+      </c>
+      <c r="H35" s="6">
+        <f>5735-4515</f>
+        <v>1220</v>
       </c>
       <c r="I35" s="2">
         <f>2953-1850</f>
@@ -1889,23 +1911,23 @@
       <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="2">
-        <v>409</v>
-      </c>
-      <c r="D36" s="2">
-        <v>520</v>
-      </c>
-      <c r="E36" s="2">
-        <v>267</v>
-      </c>
-      <c r="F36" s="2">
-        <v>498</v>
-      </c>
-      <c r="G36" s="2">
-        <v>393</v>
-      </c>
-      <c r="H36" s="2">
-        <v>229</v>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3500</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
       </c>
       <c r="I36" s="2">
         <v>320</v>
@@ -1918,23 +1940,23 @@
       <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="2">
-        <v>-2079</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-2889</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-4000</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-4400</v>
-      </c>
-      <c r="G37" s="2">
-        <v>-3714</v>
-      </c>
-      <c r="H37" s="2">
-        <v>-3380</v>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-488</v>
+      </c>
+      <c r="H37" s="6">
+        <v>-1347</v>
       </c>
       <c r="I37" s="2">
         <v>-4200</v>
@@ -1947,23 +1969,28 @@
       <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="2">
-        <v>-1915</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-2119</v>
-      </c>
-      <c r="E38" s="2">
-        <v>-2272</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-2442</v>
-      </c>
-      <c r="G38" s="2">
-        <v>-2592</v>
-      </c>
-      <c r="H38" s="2">
-        <v>-2626</v>
+      <c r="C38" s="6">
+        <f>-2-174</f>
+        <v>-176</v>
+      </c>
+      <c r="D38" s="6">
+        <f>-218-278</f>
+        <v>-496</v>
+      </c>
+      <c r="E38" s="6">
+        <f>-291-82</f>
+        <v>-373</v>
+      </c>
+      <c r="F38" s="6">
+        <v>-73</v>
+      </c>
+      <c r="G38" s="6">
+        <f>-331-583</f>
+        <v>-914</v>
+      </c>
+      <c r="H38" s="6">
+        <f>-866-840</f>
+        <v>-1706</v>
       </c>
       <c r="I38" s="2">
         <v>-2719</v>
@@ -1976,34 +2003,46 @@
       <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="2">
-        <f>346-SUM(C34:C38)</f>
-        <v>-11</v>
-      </c>
-      <c r="D39" s="2">
-        <f>-3516-SUM(D34:D38)</f>
-        <v>-143</v>
-      </c>
-      <c r="E39" s="2">
-        <f>-5032-SUM(E34:E38)</f>
-        <v>2480</v>
-      </c>
-      <c r="F39" s="2">
-        <f>-6600-SUM(F34:F38)</f>
-        <v>-79</v>
-      </c>
-      <c r="G39" s="2">
-        <f>-81-SUM(G34:G38)</f>
-        <v>-59</v>
-      </c>
-      <c r="H39" s="2">
-        <f>-8254-SUM(H34:H38)</f>
-        <v>-81</v>
+      <c r="C39" s="6">
+        <f>-3055-SUM(C34:C38)</f>
+        <v>-22</v>
+      </c>
+      <c r="D39" s="6">
+        <f>900-SUM(D34:D38)</f>
+        <v>-19</v>
+      </c>
+      <c r="E39" s="6">
+        <f>-1556-SUM(E34:E38)</f>
+        <v>135</v>
+      </c>
+      <c r="F39" s="6">
+        <f>-128-SUM(F34:F38)</f>
+        <v>138</v>
+      </c>
+      <c r="G39" s="6">
+        <f>-1340-SUM(G34:G38)</f>
+        <v>322</v>
+      </c>
+      <c r="H39" s="6">
+        <f>-1623-SUM(H34:H38)</f>
+        <v>210</v>
       </c>
       <c r="I39" s="2">
         <f>-6330-SUM(I34:I38)</f>
         <v>-48</v>
       </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FSV_Input.xlsx
+++ b/FSV_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Python\GithubRepos\FSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56034450-AAB5-4A26-B106-988916E5D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107EC7C-F12C-496D-B8A6-4BC86F1DD3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{80C5ABC4-83F2-44F8-AECF-B26584A9F187}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -39,6 +39,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FA789C76-AEEE-4803-A519-B7C49A7C5069}</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{FA789C76-AEEE-4803-A519-B7C49A7C5069}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Expense = Positive
+Gain = Negative</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
   <si>
@@ -368,7 +387,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +425,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -436,14 +463,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,10 +478,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,6 +497,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jaison Abraham" id="{DD1E8317-B342-4891-9E93-BF1E2B1D03CD}" userId="8a22656740859fa9" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,13 +800,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A6" dT="2024-12-29T15:31:02.41" personId="{DD1E8317-B342-4891-9E93-BF1E2B1D03CD}" id="{FA789C76-AEEE-4803-A519-B7C49A7C5069}">
+    <text>Expense = Positive
+Gain = Negative</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932F722-44AB-4AA5-A871-6507DE4B7A17}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -786,8 +829,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -796,14 +839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
-  <dimension ref="A1:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5FD69-4869-4BAF-962E-13C5EA96164E}">
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +858,7 @@
     <col min="11" max="13" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -851,955 +894,985 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>16403</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>18628</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>14402</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>14198</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>22845</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>22780</v>
       </c>
-      <c r="I2" s="2">
-        <v>35466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I2" s="5">
+        <v>22855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>11980-C4</f>
         <v>10266</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>13445-D4</f>
         <v>11691</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>13105-E4</f>
         <v>11693</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>11655-F4</f>
         <v>10127</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>14030-G4</f>
         <v>12032</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>15089-H4</f>
         <v>13070</v>
       </c>
-      <c r="I3" s="2">
-        <v>23825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="5">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1714</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1754</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1412</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1528</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1998</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>2019</v>
       </c>
-      <c r="I4" s="2">
-        <f>657+547</f>
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="5">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>477+93+244-81</f>
         <v>733</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>443+105+89-208</f>
         <v>429</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>414+104+105-417</f>
         <v>206</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>370+50+159-473</f>
         <v>106</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>383+55+91-80</f>
         <v>449</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>420+115+121-2</f>
         <v>654</v>
       </c>
-      <c r="I5" s="2">
-        <v>5214</v>
-      </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="5">
+        <f>479+137+319</f>
+        <v>935</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>-102</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-963</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-1149</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1065</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-675</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-1378</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>189</v>
+      </c>
+      <c r="D6" s="5">
+        <v>216</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
+        <v>296</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1159</v>
+      </c>
+      <c r="H6" s="5">
+        <v>742</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>801</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>945</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>620</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>598</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>602</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>560</v>
       </c>
-      <c r="I7" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="5">
+        <v>515</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>883</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>991</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>510</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>944</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>2299</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>2267</v>
       </c>
-      <c r="I8" s="2">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1454</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1458</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1451</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1461</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1482</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1451</v>
       </c>
-      <c r="I9" s="2">
-        <f>4966/7.27</f>
-        <v>683.08115543328756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="5">
+        <v>1443</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>7843</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7059</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9287</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9067</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="C10" s="5">
+        <v>4526</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4217</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3657</v>
+      </c>
+      <c r="G10" s="5">
         <v>8068</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>8146</v>
       </c>
-      <c r="I10" s="2">
-        <v>9627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="5">
+        <f>4758+1208</f>
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
-        <v>1520</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3758</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1623</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1349</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2">
-        <v>8177</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8866</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7508</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7493</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="C12" s="5">
+        <v>1322</v>
+      </c>
+      <c r="D12" s="5">
+        <v>829</v>
+      </c>
+      <c r="E12" s="5">
+        <v>741</v>
+      </c>
+      <c r="F12" s="5">
+        <v>892</v>
+      </c>
+      <c r="G12" s="5">
         <v>1168</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>1336</v>
       </c>
-      <c r="I12" s="2">
-        <v>7440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="5">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2">
-        <v>4366</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4613</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4326</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4421</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="C13" s="5">
+        <f>1323+1422+1404</f>
+        <v>4149</v>
+      </c>
+      <c r="D13" s="5">
+        <f>1528+1453+1778</f>
+        <v>4759</v>
+      </c>
+      <c r="E13" s="5">
+        <f>1649+1143+1281</f>
+        <v>4073</v>
+      </c>
+      <c r="F13" s="5">
+        <f>1594+1014+1285</f>
+        <v>3893</v>
+      </c>
+      <c r="G13" s="5">
         <f>1669+1170+1658</f>
         <v>4497</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f>1964+1383+1833</f>
         <v>5180</v>
       </c>
-      <c r="I13" s="2">
-        <v>5538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="5">
+        <f>2472+2169+1419</f>
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
-        <v>1152</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1706</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1618</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1973</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="C14" s="5">
+        <f>343+286</f>
+        <v>629</v>
+      </c>
+      <c r="D14" s="5">
+        <f>493+422</f>
+        <v>915</v>
+      </c>
+      <c r="E14" s="5">
+        <f>655+426</f>
+        <v>1081</v>
+      </c>
+      <c r="F14" s="5">
+        <f>341+520</f>
+        <v>861</v>
+      </c>
+      <c r="G14" s="5">
         <f>523+574</f>
         <v>1097</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f>492+459</f>
         <v>951</v>
       </c>
-      <c r="I14" s="2">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="5">
+        <f>14065-I13-I12-I10</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
-        <v>14507</v>
-      </c>
-      <c r="D15" s="2">
-        <v>15187</v>
-      </c>
-      <c r="E15" s="2">
-        <v>13410</v>
-      </c>
-      <c r="F15" s="2">
-        <v>13713</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="C15" s="5">
+        <v>64796</v>
+      </c>
+      <c r="D15" s="5">
+        <v>71105</v>
+      </c>
+      <c r="E15" s="5">
+        <v>73357</v>
+      </c>
+      <c r="F15" s="5">
+        <v>74883</v>
+      </c>
+      <c r="G15" s="5">
         <v>77018</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>80900</v>
       </c>
-      <c r="I15" s="2">
-        <v>14762</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="5">
+        <v>84567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2">
-        <v>5793</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5926</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5296</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5325</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="C16" s="5">
+        <v>22994</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28010</v>
+      </c>
+      <c r="E16" s="5">
+        <v>29584</v>
+      </c>
+      <c r="F16" s="5">
+        <v>29818</v>
+      </c>
+      <c r="G16" s="5">
         <v>30345</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>32627</v>
       </c>
-      <c r="I16" s="2">
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>35295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
-        <v>587</v>
-      </c>
-      <c r="D17" s="2">
-        <v>667</v>
-      </c>
-      <c r="E17" s="2">
-        <v>742</v>
-      </c>
-      <c r="F17" s="2">
-        <v>588</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
-        <v>7313</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7627</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7486</v>
-      </c>
-      <c r="F18" s="2">
-        <v>7471</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>7925</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2">
-        <v>4634</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4496</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4139</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3734</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
-        <v>17707</v>
-      </c>
-      <c r="D20" s="2">
-        <v>18277</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15546</v>
-      </c>
-      <c r="F20" s="2">
-        <v>15563</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>17497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
-        <f>417+347+1603</f>
-        <v>2367</v>
-      </c>
-      <c r="D21" s="2">
-        <f>479+251+3372</f>
-        <v>4102</v>
-      </c>
-      <c r="E21" s="2">
-        <f>437+382+6869</f>
-        <v>7688</v>
-      </c>
-      <c r="F21" s="2">
-        <f>392+86+8688</f>
-        <v>9166</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="C21" s="5">
+        <f>1409+2273</f>
+        <v>3682</v>
+      </c>
+      <c r="D21" s="5">
+        <f>1314+2172</f>
+        <v>3486</v>
+      </c>
+      <c r="E21" s="5">
+        <f>1425+1885</f>
+        <v>3310</v>
+      </c>
+      <c r="F21" s="5">
+        <f>1463+1560</f>
+        <v>3023</v>
+      </c>
+      <c r="G21" s="5">
         <f>1387+1460</f>
         <v>2847</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f>1252+1601</f>
         <v>2853</v>
       </c>
-      <c r="I21" s="2">
-        <f>224+421+9513</f>
-        <v>10158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="5">
+        <f>1336+1810</f>
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
-        <v>5690</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6584</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5607</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5730</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="C22" s="5">
+        <v>2497</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2625</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2576</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2708</v>
+      </c>
+      <c r="G22" s="5">
         <v>3495</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>4027</v>
       </c>
-      <c r="I22" s="2">
-        <v>6329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2">
-        <v>227</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1351</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2872</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1376</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="C23" s="5">
+        <v>1414</v>
+      </c>
+      <c r="D23" s="5">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>34</v>
+      </c>
+      <c r="G23" s="5">
         <v>372</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>1037</v>
       </c>
-      <c r="I23" s="2">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="5">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2">
-        <v>3366</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3958</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3586</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3516</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2">
-        <v>7048</v>
-      </c>
-      <c r="D25" s="2">
-        <v>6968</v>
-      </c>
-      <c r="E25" s="2">
-        <v>6859</v>
-      </c>
-      <c r="F25" s="2">
-        <v>7476</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="C25" s="5">
+        <f>583+420</f>
+        <v>1003</v>
+      </c>
+      <c r="D25" s="5">
+        <f>165+449+73</f>
+        <v>687</v>
+      </c>
+      <c r="E25" s="5">
+        <f>436+119+73</f>
+        <v>628</v>
+      </c>
+      <c r="F25" s="5">
+        <f>324+351</f>
+        <v>675</v>
+      </c>
+      <c r="G25" s="5">
         <f>1541+264+220</f>
         <v>2025</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>744+320+217</f>
         <v>1281</v>
       </c>
-      <c r="I25" s="2">
-        <v>9162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
+        <f>786+316+218</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2">
-        <v>12182</v>
-      </c>
-      <c r="D26" s="2">
-        <v>12573</v>
-      </c>
-      <c r="E26" s="2">
-        <v>9756</v>
-      </c>
-      <c r="F26" s="2">
-        <v>11110</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="C26" s="5">
+        <v>11815</v>
+      </c>
+      <c r="D26" s="5">
+        <v>11124</v>
+      </c>
+      <c r="E26" s="5">
+        <v>9821</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9677</v>
+      </c>
+      <c r="G26" s="5">
         <v>9078</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>9583</v>
       </c>
-      <c r="I26" s="2">
-        <v>15123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
+        <v>8656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2">
-        <f>486+473+1014+4110+3</f>
-        <v>6086</v>
-      </c>
-      <c r="D27" s="2">
-        <f>2664+512+2260+5930+5</f>
-        <v>11371</v>
-      </c>
-      <c r="E27" s="2">
-        <f>1713+344+2269+6402+7</f>
-        <v>10735</v>
-      </c>
-      <c r="F27" s="2">
-        <f>1670+326+1996+6766+7</f>
-        <v>10765</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="C27" s="5">
+        <f>3663+3602+2012</f>
+        <v>9277</v>
+      </c>
+      <c r="D27" s="5">
+        <f>4032+3609+2230</f>
+        <v>9871</v>
+      </c>
+      <c r="E27" s="5">
+        <f>4210+3630+2491</f>
+        <v>10331</v>
+      </c>
+      <c r="F27" s="5">
+        <f>4408+3705+2269</f>
+        <v>10382</v>
+      </c>
+      <c r="G27" s="5">
         <f>4116+4234+1683</f>
         <v>10033</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f>4463+4269+1562</f>
         <v>10294</v>
       </c>
-      <c r="I27" s="2">
-        <f>2093+146+1180+6469+7</f>
-        <v>9895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
+        <f>4624+4453+1648</f>
+        <v>10725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f t="shared" ref="C28:H28" si="1">C4</f>
         <v>1714</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f t="shared" si="1"/>
         <v>1754</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>1412</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>1528</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>1998</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <f>I4</f>
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>71</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>76</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>63</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>99</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>98</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>95</v>
       </c>
-      <c r="I29" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>786</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>-861</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>196</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>-525</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>-723</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>-1544</v>
       </c>
-      <c r="I30" s="2">
-        <v>-1085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
+        <v>-649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f>-167-115-875-5-248</f>
         <v>-1410</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <f>-601-237-1001-9-123</f>
         <v>-1971</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <f>-877-256-1369-19-131</f>
         <v>-2652</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f>-428-183-1161-105-19-65</f>
         <v>-1961</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <f>-342-162-1296-222-6-87</f>
         <v>-2115</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f>-597-304-1575-806-33-154</f>
         <v>-3469</v>
       </c>
-      <c r="I31" s="2">
-        <v>-766</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="5">
+        <f>-761-368-1696-1715-84-200</f>
+        <v>-4824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>72</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <f>-3500+457+93</f>
         <v>-2950</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f>452+109</f>
         <v>561</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>704</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f>247-33</f>
         <v>214</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>108</v>
       </c>
-      <c r="I32" s="2">
-        <f>409+369-178</f>
-        <v>600</v>
+      <c r="I32" s="5">
+        <v>-102</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1809,33 +1882,33 @@
       <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f>-1321-C32-C31</f>
         <v>17</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <f>-5018-D32-D31</f>
         <v>-97</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f>-2103-E32-E31</f>
         <v>-12</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f>-1264-F32-F31</f>
         <v>-7</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f>-1964-G32-G31</f>
         <v>-63</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f>-3440-H32-H31</f>
         <v>-79</v>
       </c>
-      <c r="I33" s="2">
-        <f>-93-I32-I31</f>
-        <v>73</v>
+      <c r="I33" s="5">
+        <f>-4956-I32-I31</f>
+        <v>-30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1845,27 +1918,26 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <f>7661-8447</f>
-        <v>-786</v>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1875,33 +1947,33 @@
       <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <f>955-3812</f>
         <v>-2857</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f>632-2717</f>
         <v>-2085</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f>1879-3197</f>
         <v>-1318</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f>3531-3724</f>
         <v>-193</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f>1201-1461</f>
         <v>-260</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f>5735-4515</f>
         <v>1220</v>
       </c>
-      <c r="I35" s="2">
-        <f>2953-1850</f>
-        <v>1103</v>
+      <c r="I35" s="5">
+        <f>1781-2980</f>
+        <v>-1199</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1911,26 +1983,26 @@
       <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
         <v>3500</v>
       </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>320</v>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1940,26 +2012,26 @@
       <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <v>-488</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>-1347</v>
       </c>
-      <c r="I37" s="2">
-        <v>-4200</v>
+      <c r="I37" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1969,31 +2041,32 @@
       <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <f>-2-174</f>
         <v>-176</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <f>-218-278</f>
         <v>-496</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f>-291-82</f>
         <v>-373</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>-73</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <f>-331-583</f>
         <v>-914</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f>-866-840</f>
         <v>-1706</v>
       </c>
-      <c r="I38" s="2">
-        <v>-2719</v>
+      <c r="I38" s="5">
+        <f>-863-625</f>
+        <v>-1488</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2003,50 +2076,45 @@
       <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <f>-3055-SUM(C34:C38)</f>
         <v>-22</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <f>900-SUM(D34:D38)</f>
         <v>-19</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <f>-1556-SUM(E34:E38)</f>
         <v>135</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <f>-128-SUM(F34:F38)</f>
         <v>138</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <f>-1340-SUM(G34:G38)</f>
         <v>322</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <f>-1623-SUM(H34:H38)</f>
         <v>210</v>
       </c>
-      <c r="I39" s="2">
-        <f>-6330-SUM(I34:I38)</f>
-        <v>-48</v>
+      <c r="I39" s="5">
+        <f>-2650-SUM(I34:I38)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="6"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F44" s="6"/>
+      <c r="F42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2064,13 +2132,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2200,13 +2268,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2280,7 +2348,7 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="F12" t="s">
         <v>41</v>
       </c>
@@ -2468,13 +2536,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
